--- a/data/hotels_by_city/Dallas/Dallas_shard_64.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_64.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="608">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Professor18</t>
+  </si>
+  <si>
     <t>05/28/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>The room was clean. The neighborhood appeared to be safe.  The hotel was less than a 10-minute drive to the Region 11 Educational Service Center.  It is a 5-minute drive to the White Settlement Museum.  It is a 1-minute drive to the Texas Civil War Museum.  I would definitely stay at the hotel again.More</t>
   </si>
   <si>
+    <t>txyz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r544122420-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
     <t>Stayed in this hotel to attend a wedding in Aledo, a nearby town. The location was great, only an easy 15 min drive to the wedding venue there. The room was clean and the furnishings were new looking. Everything worked as expected and the mini-kitchen was handy- it even had a full sized apartment refrigerator. Water pressure was awesome and the beds were comfy. I have rarely slept in a more quiet room. Overall I was very pleased with the hotel and the staff.More</t>
   </si>
   <si>
+    <t>Betsy B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r491556485-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -237,6 +246,9 @@
     <t>This hotel was great!  We had to spend a week in Fort Worth having tests done at Baylor Scott &amp; White All Saints.  The hotel is about 10 miles away from the downtown medical complex but it is easy to get to using Loop 820, I-30 and exit on Rosedale, down Rosedale and one right turn to get to the hospital.  The hotel is close to Albertson's and Kroger and various eating places.  There is a park behind the hotel with walking paths.The price was reasonable and there is a discounted rate for longer term stays.  The laundry is free and there is a small store in the hotel for food and other items.  The full kitchen includes silverware, plates, cups, bowls, toaster, storage dishes and has a locker area where you can borrow larger appliances.You should be aware that no breakfast is provided so you will need to supply your own breakfast items.  These are available in the on-site store.More</t>
   </si>
   <si>
+    <t>Woody-in-Paris</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r479975854-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -256,6 +268,9 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>IcebergSlim06</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r478524999-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
@@ -298,6 +313,9 @@
 (7) The next morning...It's been a while since we've stayed at a "budget-friendly" hotel and decided on this property for an overnight stay based on the reviews and location. PROS: The room was adequately clean. CONS: (1) Check-in was bland. The agent had no personality whatsoever and seemed to care less about anything except getting back to the nap that I obviously interrupted. (2) Entering the "King" suite that I originally booked (via customer care) was discovered to be booked as a "Queen" suite. This is NOT a queen bed!!! Full size at best, but definitely NOT a queen bed. (3) Went to verify that the bed was Queen and was told yes (I'm not a furniture salesman but I know what a queen-size mattress is). (4) Asked for an upgrade to King and was told that normally an upgrade would not be a problem but the hotel was full. Went back upstairs and checked availability online and discovered there were plenty of King rooms available. (5) The a/c wall control did not work. Had to control the temp by the wall unit which made it difficult to maintain a comfortable temp. I'm pretty sure the unit was malfunctioning as I tried to adjust the temp for at least an hour at different settings. (6) The noise from the Interstate is HORRIBLE! If you want any type of quiet, DO NOT stay in a room on the highway side. (7) The next morning we discovered the $25 incidental charge turned out to be a $53 charge based on a "system glitch" that should drop-off in a few days. I am totally disappointed with this stay. Hopefully check-out will be a smooth transition.More</t>
   </si>
   <si>
+    <t>Michael M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r471649774-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -319,6 +337,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>rescuedby1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r467060107-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -334,6 +355,9 @@
     <t>Finally a comfy room that didn't feel crawly.  Clean and kitchenette.  Remote needs help. Air conditioner a little loud.  Definitely would stay again.  The bed was comfy and it all felt safe.  Easy to reach location.</t>
   </si>
   <si>
+    <t>Rick D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r455231665-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -358,6 +382,9 @@
     <t>Stayed here for a work trip. Candlewood was recommended as it was close to the my work location.The Good:Hotel was clean and the room was spacious with a full size refrigerator and kitchenette with microwave and sink. King size bed was comfortable, wifi was strong.The Bad: The tap water was cloudy and had an odor. Breakfast was breakfast bars and apples and oranges. It is far from downtown Fort Worth, closest shopping was a Wal-Mart across the highway. Only real dining option was a Chiles across the street as well.Not a bad place if you just want to lay your head down for an evening, but there is very little around.More</t>
   </si>
   <si>
+    <t>Reid F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r454772432-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -385,6 +412,9 @@
     <t>Recently, my wife and I needed a 5 day spot in Fort Worth to camp while tending to my wife's aging parents. We bid on this property through Priceline and received a great deal. But better than the deal was the property itself. This is a relatively new facility and was in very good condition, but it was also obvious it was being well maintained. We had never used a Candlewood before, and were a bit surprised Priceline listed it as a 3 Star property (it is more properly 2 star by their own admission) but that said, it was great. The staff was friendly, welcoming and knowledgable. The room, inexpensively but tastefully and well appointed. We LOVED having a true kitchen and full sized refrigerator. The free wifi was a bit slow but adequate for most needs. The location was really perfect for us in terms of available services and amenities - stores, etc., and in terms of being able to get to the various parts of town we needed quickly being right off the Jim Wright Freeway. It is a safe location. Immediate access to an outdoor public walking track was very nice. And Candlewood's lending area for kitchen appliances is really neat and well stocked. Nope, it's not 3 star - but all in all, we'd happily stay there again. We were impressed and pleased all the way around.More</t>
   </si>
   <si>
+    <t>linzerhi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r438847055-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -412,6 +442,9 @@
     <t>I stayed at the Candlewood Suites while in town for a convention.My room was comfortable and clean and I enjoyed having the kitchenette and refrigerator in my room.I liked the park behind the hotel.   It is some ball fields with a 1/2 mile jogging trail around it.  Very convenient for getting some exercise and it was well lit in the evenings I decided to use it. The staff was very friend and helpful, suggesting local businesses for various items I needed during my stay.If you stay here, the only thing to be aware of, as an extended stay hotel, they only service your room once a week.   The price was better than comparable hotels with daily room servicing, so that was completely acceptable to me.  They were willing to provide clean towels and linens upon request.if I was in the area, I would definitely stay here again.More</t>
   </si>
   <si>
+    <t>Jenna L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r407648016-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -430,6 +463,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>daniellef259</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r403609611-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -448,6 +484,9 @@
     <t>Far exceeded my expectations, wonderful sized room with all the amenities including a full size fridge and stove, plenty of additional seating in the room, comfy beds and pillows and great towels. Bathroom was clean, there wasn't overcrowding of the area by too many pictures on the walls like some places do. I loved the kitchen cupboard/snack bar area available to guests and the cute calendar on the wall in the lobby that let you know when grab-and-go breakfast and breakfast was available. Staff was super sweet. Only problem I had was that my key card would stop functioning, I had to get it reprogrammed 2x and then just replaced. They said it's sensitive to phones, but I kept it in my wallet. Oh and the gym had plenty of space which is really nice! Great stay, highly recommend to anyone. Location is close to some good eating places, 10 minutes from the Air Force base and right off two highways.More</t>
   </si>
   <si>
+    <t>lessmith</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r388207516-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -466,6 +505,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>Kathryn H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r367759541-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -493,6 +535,9 @@
     <t>The hotel was very good, quiet.  Front desk was very helpful and friendly.  I only have two suggestions:  softer mattress and room was not freshened after our first night's stay.  We had to request more towels at the front desk for out second night.  It was good to have a kitchenette in the room.  Stocked very nicely.More</t>
   </si>
   <si>
+    <t>Matthew H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r344652531-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -511,6 +556,9 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>Kevin  P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r343315620-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -541,6 +589,9 @@
     <t>Excellent service and friendly staff. Stayed here multiple times with no problems. Always friendly and courteous staff and willing to help out. Great location easy to get to from Will Rogers Coliseum. More</t>
   </si>
   <si>
+    <t>historyfanatics</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r343223576-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -559,6 +610,9 @@
     <t>Helpful staff - gave me directions to get where I needed to go.  Due to a meeting, I needed a later check-out.  The staff made it happen.The suite - what can I say?  Very comfortable.  I especially like being able to see the TV while seated on the toilet.  It lets me keep abreast of the weather.More</t>
   </si>
   <si>
+    <t>716tomj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r332267509-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -586,6 +640,9 @@
     <t>We really enjoyed our stay at this Candlewood Suites while visiting our son. The staff goes out of their way to make sure you are comfortable and happy. The room was very clean and comfortable. We plan on staying there whenever we visit our son.More</t>
   </si>
   <si>
+    <t>Jackie C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r332103224-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -607,6 +664,9 @@
     <t>He used this property for family that had traveled from St Louis to Texas. Two adults and a little chihuahua stayed here for a week and they absolutely loved it.  The location of the property gave them all kinds of options for food as well as shopping at Walmart which was really nice because these units have full kitchens which allowed them to cook some of their meals in and shoes to go out if they wanted to.More</t>
   </si>
   <si>
+    <t>Larry G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r329594449-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -631,6 +691,9 @@
     <t>My wife and I have spent almost a year staying in various Candlewood Suites in Texas and Tennessee; often times for over a month or two. So we know our Candlewood Suites and in fact we have stayed in other extended stay motels as well. Not one of the extended stay motels can hold a candle to Candlewood Suites, most of the time; no pun intended. I say this because we have stayed in a few Candlewood Suites that have been just okay, but the Candlewood Suites here in Fort Worth, Texas on Jim Wright Freeway is absolutely fantastic as Candlewood Suites goes. The staff are friendly, the motel bright, fresh and clean. The accommodations very nice. In fact being that this motel is created to be more of a middle of the road type place, travelers will be astounded to find that it instead has a very spa feeling to it, which my wife was constantly making reference to. She has been to a lot of high end spas across the country. No Candlewood Suites is not a spa, but the way everything works together to give the customer the best they can at all times is the spirit of this Candlewood Suites. Thanks to you all at the Candlewood Suites of Fort Worth, Texas. Deborah and I will always remember your kindness...LarryMore</t>
   </si>
   <si>
+    <t>michaelmQ407SY</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r329186928-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -658,6 +721,9 @@
     <t>Clean property, courteous staff and easy stay. I highly recommend this hotel for business or personal use. When we had an issue with our car, the front desk staff were quick to help. The property is close to the interstate and many stores and shopping centers. We were concerned with the distance into Ft. Worth but transportation wasn't a problem.More</t>
   </si>
   <si>
+    <t>janab716</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r329082223-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -676,6 +742,9 @@
     <t>I enjoyed staying at Candlewood Suites-Ft. Worth West. The staff is excellent, and go above and beyond expectations. Very clean and safe hotel! It's always a joy to stay at this hotel because it feels a little like home:).More</t>
   </si>
   <si>
+    <t>959dalew</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r328262567-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -700,6 +769,9 @@
     <t>The rooms are great, clean comfortable beds and a great staff. Appreciated all the help and patience with the family.  Just a great place to stay. The staff did everything they could to make our stay great. We thank themMore</t>
   </si>
   <si>
+    <t>Dennis Q</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r311779322-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -722,6 +794,9 @@
   </si>
   <si>
     <t>Made reservations and prepaid in advance. The general manager cancelled and gave away our room, and we spent an hour trying to find another hotel to stay at (at 1030 pm) as they were now all booked up. When we got there the 3rd string was in, and the manager's "give a sh$!", was completely broken.  This hotel did this to at least 6 other families, and there was an older couple there before us who had been waiting for a couple of hours and nothing was being done until we started to complain about finding another room.  We booked this location because of a softball tournament that was happening, quite literally "in their back yard".  Now we have to stay at another hotel and be inconvenienced by a drive and traffic.  This is the worst experience ever.  As a member of the Armed Forces, I utilize IHG and their partner hotels all the time, and this was simply the worst experience ever, especially now because this was the first time my family was with me.  Perhaps never again will we use this chain.  I truly hope not all managers cancel and give away a prepaid room.More</t>
+  </si>
+  <si>
+    <t>RoadKill2442</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r295442288-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
@@ -759,6 +834,9 @@
 The staff members were very pleasant to interact with and I later discovered that the owner was one of the ladies who was on site. I wish I would have known. I would have asked her if I could stay there longer. I look forward to staying at Candlewood Suites during...I have stayed in suites before, but this one was one of the nicest ones I have ever set foot in. It has a complete kitchen, a desk, recliner, two Queen sized beds, large closet, and large restroom.There is an iron and ironing board in the closet. I actually got to use it! The beds were comfortable and Dish Network is on the television. The only complaints I had were the Wi-Fi signal was weak, and so was the shower pressure. I only got 2 bars in the room (#122), so I just used my phone for checking my email. I think the shower head is the gentle type. Sometimes I prefer the massaging type that other hotels have. The also wasn't an inner curtain in the shower, so the floor had puddles after the shower. There is a lending cabinet with games and appliances. You can also borrow movies from the front desk. There is also a gym and sauna.  I didn't get the opportunity to use any of those amenities, but they looked to be well taken care of. They even had cat and dog treats.The staff members were very pleasant to interact with and I later discovered that the owner was one of the ladies who was on site. I wish I would have known. I would have asked her if I could stay there longer. I look forward to staying at Candlewood Suites during my next visit to White Settlement.More</t>
   </si>
   <si>
+    <t>GerardNotts</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r282137763-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -786,6 +864,9 @@
     <t>stayed for three weeks in June 2015 . the hotel is well located easy to access from the highway. The room was clean, comfortable and above all quiet. The staff on reception were friendly, welcoming and helpful facilities such as the gym and laundry were good.More</t>
   </si>
   <si>
+    <t>Corpus Christi S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r265834512-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -813,6 +894,9 @@
     <t>This is an extended stay hotel, didn't know that when accounting booked it for me and my work crew.  That means you get your room cleaned every 7 days, and have to go exchange dirty towels for clean towels at the front desk.  A minor inconvenience, but for what they charged a night it's ridiculous. The rooms were pretty run-down, like only dirty construction workers stayed there.  We are also in the construction industry, but we do high-end custom sign work, with very clean work crews.The main reason I wouldn't stay here again is the owner/manager dude was rude to my two Hispanic workers whom are clean-cut Texas natives (they were in one room, I was in the other).  And the same owner/manager guy checked us out the next day, went through our luggage, (even though we had it booked for 3 nights), and was giving my two workers crap about it.  He never said anything to me (I'm white), and no extra charges showed up, but I don't like my workers being talked down to like that.  Stay at the Best Western across the highway, or pay twice as much and stay in downtown Ft. Worth.More</t>
   </si>
   <si>
+    <t>dRicheyJune2011</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r258944093-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -840,6 +924,9 @@
     <t>Got a fair deal for the night when snow prevented me from getting home and being able to get back to work the next day. Staff is always friendly at candlewood suites ! Fruit and muffins for breakfast. They h every comfortable beds and pillows. Rooms clean!!  More</t>
   </si>
   <si>
+    <t>AngelaKH1975</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r254958697-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -858,6 +945,9 @@
     <t>My friends and I stayed three nights in this hotel, and we found the room to be spacious, the beds to be comfortable, and the staff to be extremely accommodating.  Two members of our party required a handicapped accessible room with a roll-in shower, and they were able to meet this need on short notice.  We liked the amenities of the "Candlewood Cupboard," giving us access to snacks and beverages to purchase.  We would definitely stay here again.More</t>
   </si>
   <si>
+    <t>VENSIM</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r253570603-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -873,6 +963,9 @@
     <t>Stayed here one night while in town for stockshow.  Great room at a very good price. All the staff we interacted with were exceptionally friendly and accommodating.  In a good area of town that is close to restaurants, stores and more.  Easy access onto 820 on the west side of Fort Worth.   Highway noise was minimal.  Room had a comfortable bed, refrigerator, microwave, coffee maker and one burner ceramic cooktop.  Also provides some dishes and pots and pans for your convenience.  We will be looking for Candlewood Suites in our future travels!!</t>
   </si>
   <si>
+    <t>Prussik</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r247487082-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -897,6 +990,9 @@
     <t>Upscale suite hotel with large rooms and a full kitchenette.  Very comfortable beds.  Unless you want an energy bar for breakfast, buy some food across the freeway at the supermarket.  Access is difficult from the freeway and GPS instructions let me down.  You should take exit 5, not exit 4 and enter from Clifford Street.  There was no setting for the room heater to operate with the fan continually on, so cycling was a bit annoying at night.  I would definitely stay here again.More</t>
   </si>
   <si>
+    <t>JoWoodring</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r246747741-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -915,6 +1011,9 @@
     <t>This is an extended stay hotel, but we only stayed one night.  It was very spacious and clean with a full size fridge, sink, stove, and dishwasher to boot.  I would definitely recommend this place.  The staff was friendly and informative.  My only negative would be the "to go" breakfast, but since most people would be staying longer, they'd probably fix their own.More</t>
   </si>
   <si>
+    <t>almaanne</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r245988541-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -933,6 +1032,9 @@
     <t>I slept so well that I had trouble awakening.  This never happens due to my arthritis.  I have not slept so well in years!  I actually looked at the mattress to see what kind it was (Sealy Postrepedic) and thick mattress pad, but not a pillow-type.  I am going to buy this type of mattress.  The room was spacious and had more than enough amenities.  The place was dead quiet.  We could not hear people in other rooms unless we were walking past their doors in the hallway and they were near the door and talking. The breakfast bar has excellent fruit and breakfast bars, but no cereal or anything else. No protein.More</t>
   </si>
   <si>
+    <t>aprilstrick</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r237873799-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -954,6 +1056,9 @@
     <t>The staff at this facility were SO incredibly helpful &amp; friendly.  The room had a full sized refrigerator, a microwave, a cooktop, and the dishes/utensils needed for cooking.  I didn't do any cooking in the room, but it would be very helpful to have all this if someone wanted to eat in their room.Due to the fact that this is an extended stay property, no one comes into your room to clean daily, which I loved.  When I needed clean towels, I took the soiled ones to the front desk &amp; they replaced with fresh, clean towels.The property also has free laundry facilities.  I didn't stay long enough to need to wash clothes, but it was nice to know it was available.If my travels take me back to White Settlement, or anywhere close to it, I will be staying here!!More</t>
   </si>
   <si>
+    <t>Elaine S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r234623413-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -981,6 +1086,9 @@
     <t>A very clean Candlewood.  We made the mistake of staying on the freeway side of the building, so it was noisy at night, and the beds were hard.  Otherwise, it was a good stay.  It's a relatively new hotel, so it hasn't had a lot of wear and tear.More</t>
   </si>
   <si>
+    <t>Lavender_101</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r212888065-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1008,6 +1116,9 @@
     <t>I really enjoyed staying at the hotel. It was very clean and the beds are so comfy. The staff was great and so friendly. I was really impressed with this hotel over-all. Will definitely stay here again when in the area. the only drawback is there is no pool, but we really did not need it this trip but would be nice if this were a different kind of trip.More</t>
   </si>
   <si>
+    <t>Pamschultz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r211555603-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1032,6 +1143,9 @@
     <t>We moved here from Utah and booked our room here for 14 nights while we house searched. We were very impressed with the room and laundry facility as well as the gym area. The staff was super wonderful and extremely friendly and willing to offer input on where we can go for some family fun. We were a little disappointed that there wasn't a  pool, but there is a nice park just across the parking lot that we enjoyed every night after dinner. I would definitely recommend this hotel to anyone with children and or pets. We had our pit bull and cat with us and they enjoyed their stay here too. More</t>
   </si>
   <si>
+    <t>TommyJ2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r210963586-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1056,6 +1170,9 @@
     <t>I recently spent a month in the DFW area. This was not my original hotel, but after a few disgusting nights, I started to research alternatives. When I found the Candlewood Suites, I called and decided to give this place a try. I am so glad that I did. The hotel is clean, convenient and the people are great! I have never stayed in a Candlewood before, but will look to them for my travel needs from now on. Special shout out to Victor, the General Manager. He is incredibly accomidating and really cares about his guests. Their motto is "Consider us home" and I was able to do that!More</t>
   </si>
   <si>
+    <t>rb913</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r205724777-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1083,6 +1200,9 @@
     <t>Stayed here for just one night while visiting the Dallas area recently.  Overall -- a great experience.  I thought the bed was comfortable.  Didn't have any issues with the shower -- water pressure or temperature -- like some previous reviewers.  Very convenient to have a suite -- spacious room with fridge, microwave, dishes, etc.  Seemed to be in a good location too -- a lot of shops and restaurants nearby (not sure if I'd call it "walking distance" because you have to cross a highway -- but they are close).  My one and only complaint -- a little slow on the check-in.  I had called ahead to see if I could check-in a little early.  Was told it wouldn't be a problem -- but when I arrived, it seemed my room was not ready.  They had to switch some things around.  A little bit of a wait -- but I do appreciate that they let me in early as I had a meeting to get ready for.More</t>
   </si>
   <si>
+    <t>greg2171</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r205457883-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1107,6 +1227,9 @@
     <t>My family and I stayed here for a weekend in April 2014. The hotel exterior was clean and well lit at night. The check-in process was quick and efficient. The front desk clerk was friendly and helpful. The room we stayed in was a two queen bed room. The mattress was too firm and we didn't get the best sleep. The room had a full sized refrigerator, an electric range top and a microwave oven. The room was large and spacious. It had a large flat screen TV and DVD player. My other complaint was the lack of any kind of relaxing sitting chair other than the desk/dinner table chair, something we've had at other Candlewoods. The bathroom was large and well stocked with standard toiletries. Both the room and bathroom were clean. Overall the hotel is a nice, average place to stay. For the same price, next time I would stay at a Holiday Inn Express or a Holiday Inn. More</t>
   </si>
   <si>
+    <t>Simon C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r201831710-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1131,6 +1254,9 @@
     <t>After traveling and long working day it was pleasure to check into  Candlewood Suites. The lobby was bright but relaxing. The service was prompt and with smile. The room was big with full amenities kitchenette. The work desk and the area around were spacious. The wi-fi worked like a charm and the bathroom was spotless. Couple little things: I would like better water pressure in the shower and better breakfast selection. Overall, I highly recommend.More</t>
   </si>
   <si>
+    <t>FredrickTX976</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r197109800-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1158,6 +1284,9 @@
     <t>I can't say Thank you enough to Victor and his staff for the wonderful service that was provided during my stay.  The only problem I had was that my stay ended too soon. I have stayed at a lot of hotels and I have never encountered the type of service that you could actually call 5 star quality Service.More</t>
   </si>
   <si>
+    <t>Patrice H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r190379043-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1185,6 +1314,9 @@
     <t>I have ran out of good things to say about my stays at Candlewood.  Victor, Josh, Victoria, Jana and Claudia have spoiled me rotten.  About a year ago I used to stay at another hotel across the way which is also another IHG property but that has changed.  For the last year I have stayed no-where else but at this location.  Victor even made it to where I had reservations at one hotel but was able to price match it because I told him how much I loved stayed at that property.  Again, this is my home away from home.  I highly recommend it.  Very accommodating, and GREAT CUSTOMER SERVICE.  Please check them out if your ever in the White Settlement, TX area.More</t>
   </si>
   <si>
+    <t>Darrell F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r187180539-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1212,6 +1344,9 @@
     <t>This hotel is very new, nice and clean.  The staff treat guests as one of the family.  Each week on Wednesday, they have some form of free Manager's appreciation dinner, i.e. barbeque, chili, tacos, cold cuts etc and in addition, free beer or soda.  I stayed at this hotel over four months and would highly recommend this hotel to anyone.More</t>
   </si>
   <si>
+    <t>Scott N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r183200190-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1236,6 +1371,9 @@
     <t>My wife &amp; I stayed here for 1-full month in one of their long-term suites, and straight up -- we were both truly impressed at every turn!!  It's hard to put into tangible words, because frankly at 52 years of age -- I've never seen or  experienced this kind of consistency &amp; high-level of service from not just one person -- but from a whole staff.   Literally, they are miles &amp; miles beyond the basic qualities of kind, courteous, and professionalism that one expects in a hotel stay.  What we witnessed and experienced day-in &amp; day-out was that without exception, the entire staff was willing to lend a hand and would do anything in their power to make our stay the most comfortable &amp; satisfying it could possibly be. Jana, Victoria, Rachel, Bart, Victor, Joshua, Claudia; the whole staff in our experience ranks right up there with a $175- $400+ a night hotel, and clearly exceeds the experience of any 2-3 star hotel we've ever stayed in.  We were blessed to have stayed here.  Thank you so much Candlewood Suites staff for everything.Scott &amp; Elia NicholasMore</t>
   </si>
   <si>
+    <t>Mike C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r180923847-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1260,6 +1398,9 @@
     <t>You can generally tell within the first three or so minutes of entering a hotel if its going to be pleasant or not.  This is one of those places where you walk in and think -- "I am going to be A-OK!"  I stayed here for work for one evening and was glad I did.  From the check-in to the check out, the staff was courteous and professional.  The room was spotless, smelled great and well kept.  The workout room was in great shape w/plenty of equipment.  Overall, you can tell the organization and team take pride in keeping this hotel in great shape and IT SHOWS!  So if you're looking for a place to stay  when traveling West of Fort Worth, check this place out.  Its clean, well kept and a good return on your travel dollars.More</t>
   </si>
   <si>
+    <t>sc_knight</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r175142034-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1284,6 +1425,9 @@
     <t>Stayed here for week long business trip. Room was comfortable and roomy. Facility is among the cleanest I've ever stayed. Internet was excellent and free. The park behind the facility is an added bonus. The staff is great and very friendly. Easy one of the best hotels I have stayed at in recent memory. More</t>
   </si>
   <si>
+    <t>Sunshine870</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r158982027-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1311,6 +1455,9 @@
     <t>This place was great until we stayed too long.  We stayed a total of about 4.5 months.  The first 10 weeks were great, no problems.  The last 2 months I kept getting incorrect charges to my credit card (way too much), or charges to the wrong credit card.  This started to happen weekly,  We left because this was becoming too time consuming.  Customer service had told us they wanted us to stay indefinitely (we were new to Fort Worth).  What is sad is that what started out great , left a bad taste in our mouth, and we were very unimpressed with how Victor handled the issues we were having.  My fiancee and I felt that we had become pesty customers, when none of the mistakes that were made were ours.  We will not return to this Candlewood Suites.More</t>
   </si>
   <si>
+    <t>J W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r153104888-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1335,6 +1482,9 @@
     <t>Highly recommend. Prompt knowledgeable staff. Clean common areas. Spacious spotless room and bath. Full size refrigerator, cooktop, microwave, disposal. Well maintained. Great safe location right off highway. Free well lit parking. Behind the hotel is a treed park area plus a ball diamond with a sidewalk all the way around it. Great walking/jogging area. Watched the ball game from the room. Quiet. Slept well. Will stay again.More</t>
   </si>
   <si>
+    <t>IASFortWorth</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r141126051-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1362,6 +1512,9 @@
     <t>Based on posted Trip Advisor’s reviews for this hotel we have decided to stay there and give it a try after we tried many hotels in Fort Worth for the last 10 years. Thankfully we did and stayed for 3 weeks.In addition to previously posted encouraging reviews (which we agree with) regard the location, staff, cleanness, safety and services; I would like to add the following comments;•The hotel has no tolerance policy for noisy guests.•The hotel has designated certain floor for guests with pets.•Big trash cans are placed at the end of each hallway and picked up regularly.•Even though the cleaning schedule is once weekly, however the front desk can accommodate your request if the room needs to be cleaned in less than a week. You can change towels and sheets in between schedule as well.•The computer in the lobby comes in handy if you want to print something.But the real pleasure about the hotel was the staff’s exceptional attitude and willingness to help and that comes as no surprise when you meet the hotel manager who is clearly determined to go the extra mile to ensure that his guests are happy and satisfied; not only when they are there but also when they are ready to come back and that’s why we booked another stay in  November.More</t>
   </si>
   <si>
+    <t>swa5454</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r134149500-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1389,6 +1542,9 @@
     <t>Very good service by staff at this location. I love staying here. The place so clean. Front desk staff did a great job on keep us informed of stores and restaurants in the area. I love the location. My room face the softball fields. I watched softball all night it was great..More</t>
   </si>
   <si>
+    <t>Susan S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r127820303-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1416,6 +1572,9 @@
     <t>We were pleasantly suprised by the friendliness of the staff, from the landscapers to the front desk employee's. All went out of their way to make sure that we felt at home. We have visited the area frequently, in different hotels but this will be our home away from home for future visits. While visiting our son and his wife (we are from Arizona) we particularly enjoyed the easy access to shopping and local attractions - it seemed that everywhere we visited, from vineyards to the lakes, to the botanical gardens were only a couple of minutes away. The hotel is new and very clean and safe, small things like the weekly "family" dinner provided free of charge and free laundry services were something that we didn't expect but taken very serious by the staff.Mid stay, we signed up for the Priority Club Rewards program and look forward to coming back. The only way we won't stay here again is when we purchase property to be closer to our relatives.More</t>
   </si>
   <si>
+    <t>JayL1111</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r126911343-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1437,6 +1596,9 @@
     <t>I was passing through Ft Wroth on business and was able to book this place for less than $70 for the night.  It was very clean and looked all new in side.  The staff was polite and the standard checkout is not until noon.  I will stay here again if I'm ever in the area.More</t>
   </si>
   <si>
+    <t>Danelle A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r125406832-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1458,6 +1620,9 @@
     <t>Our family relocated to the Fort Worth area due to my husband's job.  We stayed at the Candlewood for a month while awaiting closing on the house we purchased.  The staff was very friendly and always willing to do what they could to make our stay comfortable.  The location of the hotel is great.  Close to the freeways to get where you need quickly and conveniently and there are many amenities just around the corner from the hotel to include restaurants, shopping, etc.  Though the suite is just one room, it is spacious and well layed out.  The staff accommodated us with an extra table and chairs during our stay.  There is no oven and just a small stove top that takes a while to cook anything, 40 minutes to boil water.  But the microwave is a nice size and there is a full size fridge and freezer.  I brought along a crockpot and it worked nicely to prepare dinners during our stay.  Since my husband was at work and my kids were in school, I didn't want to rely on eating out every night for an entire month.  The provided washers and dryers were a great touch.  So glad I didn't have to spend afternoons at a laundromat.  Since the laundry area is just off the work out center, I could easily take care of both at the same time.  The availability of the computers was nice too.  It...Our family relocated to the Fort Worth area due to my husband's job.  We stayed at the Candlewood for a month while awaiting closing on the house we purchased.  The staff was very friendly and always willing to do what they could to make our stay comfortable.  The location of the hotel is great.  Close to the freeways to get where you need quickly and conveniently and there are many amenities just around the corner from the hotel to include restaurants, shopping, etc.  Though the suite is just one room, it is spacious and well layed out.  The staff accommodated us with an extra table and chairs during our stay.  There is no oven and just a small stove top that takes a while to cook anything, 40 minutes to boil water.  But the microwave is a nice size and there is a full size fridge and freezer.  I brought along a crockpot and it worked nicely to prepare dinners during our stay.  Since my husband was at work and my kids were in school, I didn't want to rely on eating out every night for an entire month.  The provided washers and dryers were a great touch.  So glad I didn't have to spend afternoons at a laundromat.  Since the laundry area is just off the work out center, I could easily take care of both at the same time.  The availability of the computers was nice too.  It was especially helpful to be able to use the printer and have faxes sent during the house buying process.  There is wifi available too for using all your devices in the room.  The manager's night every Wednesday was nice too.  Good way to meet other people in the temp phase and exchange stories that help with the decision making process.  I would highly recommend this Candlewood Suites for the cost, convenience and service.More</t>
   </si>
   <si>
+    <t>amber51511</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r123849818-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1482,6 +1647,9 @@
     <t>Another wonderful experience. This was my second time and looked to be under new management but still a very fine establishment. Looks as though changes are coming soon but I don't doubt they will be wonderful ones. More</t>
   </si>
   <si>
+    <t>Pastrimino</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r121913360-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1503,6 +1671,9 @@
     <t>New Hotel, very nice.  Outstanding, friendly staff.  They provided a BBQ meal on Wednesday evening and I understand they have a meal every Wednesday evening for their guests.  Excellent place to stay especially if staying multiple days.  Spacious room, kitchen with full size fridge, dishwasher, stove, microwave etc.  I had excellent internet connection, wifi or hardwire available.More</t>
   </si>
   <si>
+    <t>SamTexas123123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r121198944-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1530,6 +1701,9 @@
     <t>I stayed here for a week on business. The place looked brand new! Spotless! It is like a small apt with large full kitchen : refrig, stove, micro, dishwasher, etc. There is a table for eating, huge man size lazy boy chair for relaxing &amp; very nice, comfy bed. The bathroom is large &amp; was very clean - again ,,, everything looks brand new! On the first floor there is a free washer / dryer. They also have a small snack shop in the lobby. It is located between the freeway &amp; a baseball field which I thought would be noisy - but there was ZERO traffic heard inside the room. Also the lights from the baseball field did not shine into the room because they have "black out" curtains. The clerk at the checkin was VERY SWEET!!!   ; )Only con: I could not figure out how to rent movies on the TV. I do not think that is an option at this hotel. :(More</t>
   </si>
   <si>
+    <t>Eric B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r120727088-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1548,6 +1722,9 @@
     <t>The only reason it is not my best stay, is the other Hotel was the Breakers in Florida, which is a true 5* hotel/resort, but I paid serious $ for that.This hotel is not attempting to be a 5* hotel, but actually gives above 5* hotel service!I cannot say enough about the staff!  The staff of this hotel is the best I have ever seen, and even beats numerous 4-5* hotels I have stayed at! Karen and her employee's made us feel at home and by the time I left we felt like friends.  I can tell they care about keeping the hotel well maintained and respond to requests immediately.The hotel and rooms were immaculate, new and extremely well maintained.They even offer dinner on Wednesday's at no charge.  The management is present and is looking for what they can do to make this the best hotel possible.This is the only hotel I have ever stayed at where all the staff was working to ensure repeat biz.They succeeded, and will get mine.They also succeeded in getting me to write two reviews.  I rarely bother to do so. I told the other hotel I stayed at on this trip (a +$200/night hotel) they were inferior in service to this one.The trip was for business, but I had my family along.  It was wonderful for all of us.More</t>
   </si>
   <si>
+    <t>boxersdaddy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r119776191-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1584,6 +1761,9 @@
     <t xml:space="preserve">My boyfriend and I were celebrating our anniversary and we did a lot of research as to where we wanted to stay but had no time to make a reservation. We walked in and it was an experience unlike any other him or I have had with previous hotels. Trinell at the front desk has a perfect balance between professionalism and acqaintanship. The rooms were clean and everything was placed to make it feel like home. We have plans to come back quite often. </t>
   </si>
   <si>
+    <t>Ty L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r118509188-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1605,6 +1785,9 @@
     <t>I was sent to FT. Worth for a military school for 2 weeks. I did not have any reservations, so I just went hoping I would be able to find a room. My first stop was Candlewood Suites. As soon as I walked in the door, I was treated with respect and given a tour of the rooms, and facilities.  The price was great for the area. The whole time I stayed at the Facility, I was treated as if I had just walked in.  I want to give a special thanks to Lisa, Rosetta, Mary, and Trinell. They are an Awsome staff, and I will tell anyone who wants a place to stay in Ft Worth,( To StayHere)  Five Star Service.More</t>
   </si>
   <si>
+    <t>Roderick D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r118120428-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1620,6 +1803,9 @@
     <t>The staff is so Awesome here that I have stayed three times, and am planning my next 3 day visit before Sept. 30TH.  From Hussein &amp; Max, to Prisilla and Destiny, you will never find better service.  In addition, the cleanliness and modern decor of the facility, the laundry room is excellent.  Hat's Off to Sal, the hotel manager.  You have great taste in choosing staff!</t>
   </si>
   <si>
+    <t>bsdarlin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r116077504-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1638,6 +1824,9 @@
     <t>June 2011</t>
   </si>
   <si>
+    <t>jhaz612</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r113331346-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1654,6 +1843,9 @@
   </si>
   <si>
     <t>After a thirteen hour drive with my wife and two (slightly high maintenance) teenage daughters for a family wedding in DFW, we couldn't have asked for a more pleasant welcome and stay.  From the phone call to make our  reservation, to the welcome we received at our 1:00 a.m. check-in, through checking out three days later, every interaction with any staff member, including housekeeping and maintenance was a genuinely pleasant and service oriented exchange.  The facility is brand new and final touches were being added while we stayed with NO inconvenience or disruption.  I've traveled on personal and business trips for over twenty years, and have stayed in more star hotels from L.A. to New York, the suites at Candlewood are very nice, but the people who made us feel at home are second to none.  A remarkable customer experience!More</t>
+  </si>
+  <si>
+    <t>tama0611</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r111506436-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
@@ -2176,43 +2368,47 @@
       <c r="A2" t="n">
         <v>60849</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>70866</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2228,56 +2424,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>60849</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>47638</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2293,47 +2493,51 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>60849</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>18846</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
@@ -2352,50 +2556,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>60849</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>124176</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2409,50 +2617,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>60849</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>124177</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="L6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P6" t="n">
         <v>4</v>
@@ -2470,56 +2682,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="X6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Y6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>60849</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>3657</v>
+      </c>
+      <c r="C7" t="s">
+        <v>93</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="J7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="L7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="O7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -2539,41 +2755,45 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>60849</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>124178</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="L8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
@@ -2592,41 +2812,45 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>60849</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>38905</v>
+      </c>
+      <c r="C9" t="s">
+        <v>107</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="J9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="K9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="L9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
@@ -2643,56 +2867,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="X9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="Y9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>60849</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>124179</v>
+      </c>
+      <c r="C10" t="s">
+        <v>116</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="J10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="K10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="L10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="O10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P10" t="n">
         <v>4</v>
@@ -2710,56 +2938,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="X10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="Y10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>60849</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>124180</v>
+      </c>
+      <c r="C11" t="s">
+        <v>126</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="K11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="L11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="O11" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -2777,56 +3009,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="X11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="Y11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>60849</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>17554</v>
+      </c>
+      <c r="C12" t="s">
+        <v>136</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="J12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="K12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="L12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="O12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2840,50 +3076,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>60849</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>124181</v>
+      </c>
+      <c r="C13" t="s">
+        <v>143</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="J13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="K13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="L13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="O13" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -2901,50 +3141,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>60849</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>124182</v>
+      </c>
+      <c r="C14" t="s">
+        <v>150</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="J14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="K14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="L14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="O14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2958,50 +3202,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>60849</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>12802</v>
+      </c>
+      <c r="C15" t="s">
+        <v>157</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="J15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="K15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="L15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="O15" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3017,56 +3265,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="X15" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="Y15" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>60849</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>8613</v>
+      </c>
+      <c r="C16" t="s">
+        <v>167</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="J16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="K16" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="L16" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="O16" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
@@ -3086,50 +3338,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>60849</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>124183</v>
+      </c>
+      <c r="C17" t="s">
+        <v>174</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="J17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="K17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="L17" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="O17" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3141,56 +3397,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="X17" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="Y17" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>60849</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>124184</v>
+      </c>
+      <c r="C18" t="s">
+        <v>185</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="J18" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="K18" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="L18" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="O18" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3202,56 +3462,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="X18" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="Y18" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>60849</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>124185</v>
+      </c>
+      <c r="C19" t="s">
+        <v>192</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="J19" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="K19" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="L19" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="O19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3263,56 +3527,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="X19" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="Y19" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>60849</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>124186</v>
+      </c>
+      <c r="C20" t="s">
+        <v>202</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="J20" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="K20" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="L20" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="O20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3324,56 +3592,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="X20" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="Y20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>60849</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>40343</v>
+      </c>
+      <c r="C21" t="s">
+        <v>210</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="J21" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="K21" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="L21" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="O21" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
@@ -3391,56 +3663,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="X21" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="Y21" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>60849</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>124187</v>
+      </c>
+      <c r="C22" t="s">
+        <v>219</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="J22" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="K22" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="L22" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="O22" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3452,56 +3728,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="X22" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="Y22" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>60849</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>124188</v>
+      </c>
+      <c r="C23" t="s">
+        <v>229</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
+        <v>230</v>
+      </c>
+      <c r="G23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23" t="s">
+        <v>231</v>
+      </c>
+      <c r="J23" t="s">
+        <v>232</v>
+      </c>
+      <c r="K23" t="s">
+        <v>233</v>
+      </c>
+      <c r="L23" t="s">
+        <v>234</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
         <v>208</v>
       </c>
-      <c r="G23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" t="s">
-        <v>209</v>
-      </c>
-      <c r="J23" t="s">
-        <v>210</v>
-      </c>
-      <c r="K23" t="s">
-        <v>211</v>
-      </c>
-      <c r="L23" t="s">
-        <v>212</v>
-      </c>
-      <c r="M23" t="n">
-        <v>5</v>
-      </c>
-      <c r="N23" t="s">
-        <v>189</v>
-      </c>
       <c r="O23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3513,56 +3793,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="X23" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="Y23" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>60849</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>124189</v>
+      </c>
+      <c r="C24" t="s">
+        <v>236</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="J24" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="K24" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="L24" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="O24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3574,56 +3858,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="X24" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="Y24" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>60849</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>124190</v>
+      </c>
+      <c r="C25" t="s">
+        <v>245</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="J25" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="K25" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="L25" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="O25" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3635,56 +3923,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="X25" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="Y25" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>60849</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>124191</v>
+      </c>
+      <c r="C26" t="s">
+        <v>254</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="J26" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="K26" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="L26" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="O26" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3696,56 +3988,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="X26" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="Y26" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>60849</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>124192</v>
+      </c>
+      <c r="C27" t="s">
+        <v>264</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="J27" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="K27" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="L27" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="O27" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -3761,56 +4057,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="X27" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="Y27" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>60849</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>124193</v>
+      </c>
+      <c r="C28" t="s">
+        <v>274</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="J28" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="K28" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="L28" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="M28" t="n">
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="O28" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3828,56 +4128,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="X28" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="Y28" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>60849</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>124194</v>
+      </c>
+      <c r="C29" t="s">
+        <v>284</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="J29" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="K29" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="L29" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="O29" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3889,56 +4193,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="X29" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="Y29" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>60849</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>124195</v>
+      </c>
+      <c r="C30" t="s">
+        <v>294</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="J30" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="K30" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="L30" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="O30" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
@@ -3956,56 +4264,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="X30" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="Y30" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>60849</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>124196</v>
+      </c>
+      <c r="C31" t="s">
+        <v>301</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="J31" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="K31" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="L31" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="O31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4025,50 +4337,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>60849</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>124197</v>
+      </c>
+      <c r="C32" t="s">
+        <v>307</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="J32" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="K32" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="L32" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="O32" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="n">
@@ -4086,56 +4402,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="X32" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="Y32" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>60849</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>124198</v>
+      </c>
+      <c r="C33" t="s">
+        <v>316</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="J33" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="K33" t="s">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="L33" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="O33" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P33" t="n">
         <v>4</v>
@@ -4153,56 +4473,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="X33" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="Y33" t="s">
-        <v>290</v>
+        <v>322</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>60849</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>124199</v>
+      </c>
+      <c r="C34" t="s">
+        <v>323</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>292</v>
+        <v>325</v>
       </c>
       <c r="J34" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
       <c r="K34" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="L34" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="O34" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -4218,56 +4542,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="X34" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="Y34" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>60849</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>124200</v>
+      </c>
+      <c r="C35" t="s">
+        <v>330</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>297</v>
+        <v>331</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>298</v>
+        <v>332</v>
       </c>
       <c r="J35" t="s">
-        <v>299</v>
+        <v>333</v>
       </c>
       <c r="K35" t="s">
-        <v>300</v>
+        <v>334</v>
       </c>
       <c r="L35" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="O35" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -4283,56 +4611,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="X35" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="Y35" t="s">
-        <v>303</v>
+        <v>337</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>60849</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>19941</v>
+      </c>
+      <c r="C36" t="s">
+        <v>338</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="J36" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="K36" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="L36" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="O36" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -4350,56 +4682,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="X36" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="Y36" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>60849</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>124201</v>
+      </c>
+      <c r="C37" t="s">
+        <v>348</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
       <c r="J37" t="s">
-        <v>315</v>
+        <v>351</v>
       </c>
       <c r="K37" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="L37" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>318</v>
+        <v>354</v>
       </c>
       <c r="O37" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -4421,47 +4757,51 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="X37" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="Y37" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>60849</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>124202</v>
+      </c>
+      <c r="C38" t="s">
+        <v>358</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="J38" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="K38" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="L38" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
@@ -4488,56 +4828,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="X38" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="Y38" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>60849</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>124203</v>
+      </c>
+      <c r="C39" t="s">
+        <v>367</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>330</v>
+        <v>368</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="J39" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
       <c r="K39" t="s">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="L39" t="s">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>318</v>
+        <v>354</v>
       </c>
       <c r="O39" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -4559,56 +4903,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="X39" t="s">
-        <v>336</v>
+        <v>374</v>
       </c>
       <c r="Y39" t="s">
-        <v>337</v>
+        <v>375</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>60849</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>32685</v>
+      </c>
+      <c r="C40" t="s">
+        <v>376</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="J40" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
       <c r="K40" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="L40" t="s">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="n">
         <v>4</v>
@@ -4630,56 +4978,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="X40" t="s">
-        <v>345</v>
+        <v>384</v>
       </c>
       <c r="Y40" t="s">
-        <v>346</v>
+        <v>385</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>60849</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>124204</v>
+      </c>
+      <c r="C41" t="s">
+        <v>386</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>347</v>
+        <v>387</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>348</v>
+        <v>388</v>
       </c>
       <c r="J41" t="s">
-        <v>349</v>
+        <v>389</v>
       </c>
       <c r="K41" t="s">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="L41" t="s">
-        <v>351</v>
+        <v>391</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="O41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4691,56 +5043,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="X41" t="s">
-        <v>353</v>
+        <v>393</v>
       </c>
       <c r="Y41" t="s">
-        <v>354</v>
+        <v>394</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>60849</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>112540</v>
+      </c>
+      <c r="C42" t="s">
+        <v>395</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>356</v>
+        <v>397</v>
       </c>
       <c r="J42" t="s">
-        <v>357</v>
+        <v>398</v>
       </c>
       <c r="K42" t="s">
-        <v>358</v>
+        <v>399</v>
       </c>
       <c r="L42" t="s">
-        <v>359</v>
+        <v>400</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="O42" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4762,56 +5118,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>360</v>
+        <v>401</v>
       </c>
       <c r="X42" t="s">
-        <v>361</v>
+        <v>402</v>
       </c>
       <c r="Y42" t="s">
-        <v>362</v>
+        <v>403</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>60849</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>124205</v>
+      </c>
+      <c r="C43" t="s">
+        <v>404</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>363</v>
+        <v>405</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>364</v>
+        <v>406</v>
       </c>
       <c r="J43" t="s">
-        <v>365</v>
+        <v>407</v>
       </c>
       <c r="K43" t="s">
-        <v>366</v>
+        <v>408</v>
       </c>
       <c r="L43" t="s">
-        <v>367</v>
+        <v>409</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4833,56 +5193,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>369</v>
+        <v>411</v>
       </c>
       <c r="X43" t="s">
-        <v>370</v>
+        <v>412</v>
       </c>
       <c r="Y43" t="s">
-        <v>371</v>
+        <v>413</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>60849</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>5902</v>
+      </c>
+      <c r="C44" t="s">
+        <v>414</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>372</v>
+        <v>415</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>373</v>
+        <v>416</v>
       </c>
       <c r="J44" t="s">
-        <v>374</v>
+        <v>417</v>
       </c>
       <c r="K44" t="s">
-        <v>375</v>
+        <v>418</v>
       </c>
       <c r="L44" t="s">
-        <v>376</v>
+        <v>419</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>377</v>
+        <v>420</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -4904,56 +5268,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>378</v>
+        <v>421</v>
       </c>
       <c r="X44" t="s">
-        <v>379</v>
+        <v>422</v>
       </c>
       <c r="Y44" t="s">
-        <v>380</v>
+        <v>423</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>60849</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>124206</v>
+      </c>
+      <c r="C45" t="s">
+        <v>424</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>381</v>
+        <v>425</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>382</v>
+        <v>426</v>
       </c>
       <c r="J45" t="s">
-        <v>383</v>
+        <v>427</v>
       </c>
       <c r="K45" t="s">
-        <v>384</v>
+        <v>428</v>
       </c>
       <c r="L45" t="s">
-        <v>385</v>
+        <v>429</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>386</v>
+        <v>430</v>
       </c>
       <c r="O45" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -4975,56 +5343,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>387</v>
+        <v>431</v>
       </c>
       <c r="X45" t="s">
-        <v>388</v>
+        <v>432</v>
       </c>
       <c r="Y45" t="s">
-        <v>389</v>
+        <v>433</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>60849</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>88582</v>
+      </c>
+      <c r="C46" t="s">
+        <v>434</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>390</v>
+        <v>435</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>391</v>
+        <v>436</v>
       </c>
       <c r="J46" t="s">
-        <v>392</v>
+        <v>437</v>
       </c>
       <c r="K46" t="s">
-        <v>393</v>
+        <v>438</v>
       </c>
       <c r="L46" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>386</v>
+        <v>430</v>
       </c>
       <c r="O46" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -5046,56 +5418,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>395</v>
+        <v>440</v>
       </c>
       <c r="X46" t="s">
-        <v>396</v>
+        <v>441</v>
       </c>
       <c r="Y46" t="s">
-        <v>397</v>
+        <v>442</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>60849</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>3891</v>
+      </c>
+      <c r="C47" t="s">
+        <v>443</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>398</v>
+        <v>444</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>399</v>
+        <v>445</v>
       </c>
       <c r="J47" t="s">
-        <v>400</v>
+        <v>446</v>
       </c>
       <c r="K47" t="s">
-        <v>401</v>
+        <v>447</v>
       </c>
       <c r="L47" t="s">
-        <v>402</v>
+        <v>448</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>386</v>
+        <v>430</v>
       </c>
       <c r="O47" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -5117,47 +5493,51 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>403</v>
+        <v>449</v>
       </c>
       <c r="X47" t="s">
-        <v>404</v>
+        <v>450</v>
       </c>
       <c r="Y47" t="s">
-        <v>405</v>
+        <v>451</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>60849</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>124207</v>
+      </c>
+      <c r="C48" t="s">
+        <v>452</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>406</v>
+        <v>453</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>407</v>
+        <v>454</v>
       </c>
       <c r="J48" t="s">
-        <v>408</v>
+        <v>455</v>
       </c>
       <c r="K48" t="s">
-        <v>409</v>
+        <v>456</v>
       </c>
       <c r="L48" t="s">
-        <v>410</v>
+        <v>457</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
@@ -5184,56 +5564,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>411</v>
+        <v>458</v>
       </c>
       <c r="X48" t="s">
-        <v>412</v>
+        <v>459</v>
       </c>
       <c r="Y48" t="s">
-        <v>413</v>
+        <v>460</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>60849</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>124208</v>
+      </c>
+      <c r="C49" t="s">
+        <v>461</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>414</v>
+        <v>462</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>415</v>
+        <v>463</v>
       </c>
       <c r="J49" t="s">
-        <v>416</v>
+        <v>464</v>
       </c>
       <c r="K49" t="s">
-        <v>417</v>
+        <v>465</v>
       </c>
       <c r="L49" t="s">
-        <v>418</v>
+        <v>466</v>
       </c>
       <c r="M49" t="n">
         <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>419</v>
+        <v>467</v>
       </c>
       <c r="O49" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -5255,56 +5639,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>420</v>
+        <v>468</v>
       </c>
       <c r="X49" t="s">
-        <v>421</v>
+        <v>469</v>
       </c>
       <c r="Y49" t="s">
-        <v>422</v>
+        <v>470</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>60849</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>2168</v>
+      </c>
+      <c r="C50" t="s">
+        <v>471</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>423</v>
+        <v>472</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>424</v>
+        <v>473</v>
       </c>
       <c r="J50" t="s">
-        <v>425</v>
+        <v>474</v>
       </c>
       <c r="K50" t="s">
-        <v>426</v>
+        <v>475</v>
       </c>
       <c r="L50" t="s">
-        <v>427</v>
+        <v>476</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>419</v>
+        <v>467</v>
       </c>
       <c r="O50" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -5326,56 +5714,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>428</v>
+        <v>477</v>
       </c>
       <c r="X50" t="s">
-        <v>429</v>
+        <v>478</v>
       </c>
       <c r="Y50" t="s">
-        <v>430</v>
+        <v>479</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>60849</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>124209</v>
+      </c>
+      <c r="C51" t="s">
+        <v>480</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>431</v>
+        <v>481</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>432</v>
+        <v>482</v>
       </c>
       <c r="J51" t="s">
-        <v>433</v>
+        <v>483</v>
       </c>
       <c r="K51" t="s">
-        <v>434</v>
+        <v>484</v>
       </c>
       <c r="L51" t="s">
-        <v>435</v>
+        <v>485</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>436</v>
+        <v>486</v>
       </c>
       <c r="O51" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5395,56 +5787,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>437</v>
+        <v>487</v>
       </c>
       <c r="X51" t="s">
-        <v>438</v>
+        <v>488</v>
       </c>
       <c r="Y51" t="s">
-        <v>439</v>
+        <v>489</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>60849</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>124210</v>
+      </c>
+      <c r="C52" t="s">
+        <v>490</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>440</v>
+        <v>491</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>441</v>
+        <v>492</v>
       </c>
       <c r="J52" t="s">
-        <v>442</v>
+        <v>493</v>
       </c>
       <c r="K52" t="s">
-        <v>443</v>
+        <v>494</v>
       </c>
       <c r="L52" t="s">
-        <v>444</v>
+        <v>495</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>445</v>
+        <v>496</v>
       </c>
       <c r="O52" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -5466,56 +5862,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>446</v>
+        <v>497</v>
       </c>
       <c r="X52" t="s">
-        <v>447</v>
+        <v>498</v>
       </c>
       <c r="Y52" t="s">
-        <v>448</v>
+        <v>499</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>60849</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>168</v>
+      </c>
+      <c r="C53" t="s">
+        <v>500</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>449</v>
+        <v>501</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
       <c r="J53" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
       <c r="K53" t="s">
-        <v>452</v>
+        <v>504</v>
       </c>
       <c r="L53" t="s">
-        <v>453</v>
+        <v>505</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>454</v>
+        <v>506</v>
       </c>
       <c r="O53" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -5537,56 +5937,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>455</v>
+        <v>507</v>
       </c>
       <c r="X53" t="s">
-        <v>456</v>
+        <v>508</v>
       </c>
       <c r="Y53" t="s">
-        <v>457</v>
+        <v>509</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>60849</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>124211</v>
+      </c>
+      <c r="C54" t="s">
+        <v>510</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>458</v>
+        <v>511</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>459</v>
+        <v>512</v>
       </c>
       <c r="J54" t="s">
-        <v>460</v>
+        <v>513</v>
       </c>
       <c r="K54" t="s">
-        <v>461</v>
+        <v>514</v>
       </c>
       <c r="L54" t="s">
-        <v>462</v>
+        <v>515</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>463</v>
+        <v>516</v>
       </c>
       <c r="O54" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5608,56 +6012,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>455</v>
+        <v>507</v>
       </c>
       <c r="X54" t="s">
-        <v>456</v>
+        <v>508</v>
       </c>
       <c r="Y54" t="s">
-        <v>464</v>
+        <v>517</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>60849</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>124212</v>
+      </c>
+      <c r="C55" t="s">
+        <v>518</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>465</v>
+        <v>519</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>466</v>
+        <v>520</v>
       </c>
       <c r="J55" t="s">
-        <v>467</v>
+        <v>521</v>
       </c>
       <c r="K55" t="s">
-        <v>468</v>
+        <v>522</v>
       </c>
       <c r="L55" t="s">
-        <v>469</v>
+        <v>523</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>470</v>
+        <v>524</v>
       </c>
       <c r="O55" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -5681,41 +6089,45 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>471</v>
+        <v>525</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>60849</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>124213</v>
+      </c>
+      <c r="C56" t="s">
+        <v>526</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>472</v>
+        <v>527</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>473</v>
+        <v>528</v>
       </c>
       <c r="J56" t="s">
-        <v>474</v>
+        <v>529</v>
       </c>
       <c r="K56" t="s">
-        <v>475</v>
+        <v>530</v>
       </c>
       <c r="L56" t="s">
-        <v>476</v>
+        <v>531</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
@@ -5742,56 +6154,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>477</v>
+        <v>532</v>
       </c>
       <c r="X56" t="s">
-        <v>478</v>
+        <v>533</v>
       </c>
       <c r="Y56" t="s">
-        <v>479</v>
+        <v>534</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>60849</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>124214</v>
+      </c>
+      <c r="C57" t="s">
+        <v>535</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>480</v>
+        <v>536</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>481</v>
+        <v>537</v>
       </c>
       <c r="J57" t="s">
-        <v>482</v>
+        <v>538</v>
       </c>
       <c r="K57" t="s">
-        <v>483</v>
+        <v>539</v>
       </c>
       <c r="L57" t="s">
-        <v>484</v>
+        <v>540</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>485</v>
+        <v>541</v>
       </c>
       <c r="O57" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -5813,56 +6229,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>477</v>
+        <v>532</v>
       </c>
       <c r="X57" t="s">
-        <v>478</v>
+        <v>533</v>
       </c>
       <c r="Y57" t="s">
-        <v>486</v>
+        <v>542</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>60849</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>124215</v>
+      </c>
+      <c r="C58" t="s">
+        <v>543</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>487</v>
+        <v>544</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>488</v>
+        <v>545</v>
       </c>
       <c r="J58" t="s">
-        <v>489</v>
+        <v>546</v>
       </c>
       <c r="K58" t="s">
-        <v>490</v>
+        <v>547</v>
       </c>
       <c r="L58" t="s">
-        <v>491</v>
+        <v>548</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>492</v>
+        <v>549</v>
       </c>
       <c r="O58" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P58" t="n">
         <v>4</v>
@@ -5884,56 +6304,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>493</v>
+        <v>550</v>
       </c>
       <c r="X58" t="s">
-        <v>494</v>
+        <v>551</v>
       </c>
       <c r="Y58" t="s">
-        <v>495</v>
+        <v>552</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>60849</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>1515</v>
+      </c>
+      <c r="C59" t="s">
+        <v>553</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>496</v>
+        <v>554</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>497</v>
+        <v>555</v>
       </c>
       <c r="J59" t="s">
-        <v>498</v>
+        <v>556</v>
       </c>
       <c r="K59" t="s">
-        <v>499</v>
+        <v>557</v>
       </c>
       <c r="L59" t="s">
-        <v>500</v>
+        <v>558</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>492</v>
+        <v>549</v>
       </c>
       <c r="O59" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -5955,56 +6379,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>455</v>
+        <v>507</v>
       </c>
       <c r="X59" t="s">
-        <v>456</v>
+        <v>508</v>
       </c>
       <c r="Y59" t="s">
-        <v>501</v>
+        <v>559</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>60849</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>124216</v>
+      </c>
+      <c r="C60" t="s">
+        <v>560</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>502</v>
+        <v>561</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>503</v>
+        <v>562</v>
       </c>
       <c r="J60" t="s">
-        <v>504</v>
+        <v>563</v>
       </c>
       <c r="K60" t="s">
-        <v>505</v>
+        <v>564</v>
       </c>
       <c r="L60" t="s">
-        <v>506</v>
+        <v>565</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>507</v>
+        <v>566</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -6028,41 +6456,45 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>508</v>
+        <v>567</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>60849</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>124212</v>
+      </c>
+      <c r="C61" t="s">
+        <v>526</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>509</v>
+        <v>568</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>510</v>
+        <v>569</v>
       </c>
       <c r="J61" t="s">
-        <v>511</v>
+        <v>570</v>
       </c>
       <c r="K61" t="s">
-        <v>512</v>
+        <v>571</v>
       </c>
       <c r="L61" t="s">
-        <v>513</v>
+        <v>572</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
@@ -6091,50 +6523,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>513</v>
+        <v>572</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>60849</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>124217</v>
+      </c>
+      <c r="C62" t="s">
+        <v>573</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>514</v>
+        <v>574</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>515</v>
+        <v>575</v>
       </c>
       <c r="J62" t="s">
-        <v>516</v>
+        <v>576</v>
       </c>
       <c r="K62" t="s">
-        <v>517</v>
+        <v>577</v>
       </c>
       <c r="L62" t="s">
-        <v>518</v>
+        <v>578</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>519</v>
+        <v>579</v>
       </c>
       <c r="O62" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6158,50 +6594,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>520</v>
+        <v>580</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>60849</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>124218</v>
+      </c>
+      <c r="C63" t="s">
+        <v>581</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>521</v>
+        <v>582</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>522</v>
+        <v>583</v>
       </c>
       <c r="J63" t="s">
-        <v>523</v>
+        <v>584</v>
       </c>
       <c r="K63" t="s">
-        <v>524</v>
+        <v>585</v>
       </c>
       <c r="L63" t="s">
-        <v>525</v>
+        <v>586</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>519</v>
+        <v>579</v>
       </c>
       <c r="O63" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -6223,50 +6663,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>525</v>
+        <v>586</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>60849</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>124219</v>
+      </c>
+      <c r="C64" t="s">
+        <v>587</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>526</v>
+        <v>588</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>527</v>
+        <v>589</v>
       </c>
       <c r="J64" t="s">
-        <v>528</v>
+        <v>590</v>
       </c>
       <c r="K64" t="s">
-        <v>529</v>
+        <v>591</v>
       </c>
       <c r="L64" t="s">
-        <v>530</v>
+        <v>592</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>531</v>
+        <v>593</v>
       </c>
       <c r="O64" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -6286,50 +6730,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>530</v>
+        <v>592</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>60849</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>124220</v>
+      </c>
+      <c r="C65" t="s">
+        <v>594</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>532</v>
+        <v>595</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>533</v>
+        <v>596</v>
       </c>
       <c r="J65" t="s">
-        <v>534</v>
+        <v>597</v>
       </c>
       <c r="K65" t="s">
-        <v>535</v>
+        <v>598</v>
       </c>
       <c r="L65" t="s">
-        <v>536</v>
+        <v>599</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>531</v>
+        <v>593</v>
       </c>
       <c r="O65" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -6349,50 +6797,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>537</v>
+        <v>600</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>60849</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>124221</v>
+      </c>
+      <c r="C66" t="s">
+        <v>601</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>538</v>
+        <v>602</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>539</v>
+        <v>603</v>
       </c>
       <c r="J66" t="s">
-        <v>540</v>
+        <v>604</v>
       </c>
       <c r="K66" t="s">
-        <v>541</v>
+        <v>605</v>
       </c>
       <c r="L66" t="s">
-        <v>542</v>
+        <v>606</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>531</v>
+        <v>593</v>
       </c>
       <c r="O66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -6412,7 +6864,7 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>543</v>
+        <v>607</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_64.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_64.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="571">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,105 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Professor18</t>
-  </si>
-  <si>
-    <t>05/28/2018</t>
+    <t>08/17/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r592256107-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
+  </si>
+  <si>
+    <t>56882</t>
+  </si>
+  <si>
+    <t>1856883</t>
+  </si>
+  <si>
+    <t>592256107</t>
+  </si>
+  <si>
+    <t>07/01/2018</t>
+  </si>
+  <si>
+    <t>Great location/ even better shower!</t>
+  </si>
+  <si>
+    <t>Loved our recent stay. Located on 820 with a park right behind the hotel. Check in was a breeze. We had the king suite. The shower was strong enough to clean the grout between the tiles. Endless hot water. On site laundry facilities at no extra charge. No breakfast served but if you want the best donuts in Texas head to Dukes Donuts on Cherry Lane. It is less than a 10 min drive from the hotel. The Candlewood Suites White Settlement is one not to be missed.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Toni R, General Manager at Candlewood Suites Fort Worth West, responded to this reviewResponded July 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 2, 2018</t>
+  </si>
+  <si>
+    <t>Loved our recent stay. Located on 820 with a park right behind the hotel. Check in was a breeze. We had the king suite. The shower was strong enough to clean the grout between the tiles. Endless hot water. On site laundry facilities at no extra charge. No breakfast served but if you want the best donuts in Texas head to Dukes Donuts on Cherry Lane. It is less than a 10 min drive from the hotel. The Candlewood Suites White Settlement is one not to be missed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r589597684-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
+  </si>
+  <si>
+    <t>589597684</t>
+  </si>
+  <si>
+    <t>06/21/2018</t>
+  </si>
+  <si>
+    <t>Excellent facility, superb staff.</t>
+  </si>
+  <si>
+    <t>Toni, the manager, Angel, Jana, et al, make one feel like a member of  the family, not just a customer.  The updated lobby is attractive, the rooms comfortable and the location convenient.  This is my "go to location" in the Fort Worth area whether for business or leisure.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>Toni R, General Manager at Candlewood Suites Fort Worth West, responded to this reviewResponded June 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 22, 2018</t>
+  </si>
+  <si>
+    <t>Toni, the manager, Angel, Jana, et al, make one feel like a member of  the family, not just a customer.  The updated lobby is attractive, the rooms comfortable and the location convenient.  This is my "go to location" in the Fort Worth area whether for business or leisure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r584005185-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
+  </si>
+  <si>
+    <t>584005185</t>
+  </si>
+  <si>
+    <t>05/30/2018</t>
+  </si>
+  <si>
+    <t>Comfortable with friendly and competent staff</t>
+  </si>
+  <si>
+    <t>No problems.  Nice clean comfortable room.  Good bed and a nice host of pillows.  This hotel appears to be much newer than it actually is.  The finishing touches on a remodel were just be completed when I was there in late May 2018.  Best part about my stay was a phone call from Angel at the front desk telling me that I had left my I-Pad in the room.  It was too late to drive all the way back to get it so she graciously offered to ship it to me.  And that she did.  I received it a couple of days later.  Thank you Angel.   That was really great of you!Forgot to mention....this hotel is a bargan.  I would expect to pay much more.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Toni R, General Manager at Candlewood Suites Fort Worth West, responded to this reviewResponded May 31, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2018</t>
+  </si>
+  <si>
+    <t>No problems.  Nice clean comfortable room.  Good bed and a nice host of pillows.  This hotel appears to be much newer than it actually is.  The finishing touches on a remodel were just be completed when I was there in late May 2018.  Best part about my stay was a phone call from Angel at the front desk telling me that I had left my I-Pad in the room.  It was too late to drive all the way back to get it so she graciously offered to ship it to me.  And that she did.  I received it a couple of days later.  Thank you Angel.   That was really great of you!Forgot to mention....this hotel is a bargan.  I would expect to pay much more.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r580282580-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
-    <t>56882</t>
-  </si>
-  <si>
-    <t>1856883</t>
-  </si>
-  <si>
     <t>580282580</t>
   </si>
   <si>
@@ -183,18 +267,15 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
-    <t>Toni R, General Manager at Candlewood Suites Fort Worth West, responded to this reviewResponded 1 week ago</t>
-  </si>
-  <si>
-    <t>Responded 1 week ago</t>
+    <t>Toni R, General Manager at Candlewood Suites Fort Worth West, responded to this reviewResponded May 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2018</t>
   </si>
   <si>
     <t>The room was clean. The neighborhood appeared to be safe.  The hotel was less than a 10-minute drive to the Region 11 Educational Service Center.  It is a 5-minute drive to the White Settlement Museum.  It is a 1-minute drive to the Texas Civil War Museum.  I would definitely stay at the hotel again.More</t>
   </si>
   <si>
-    <t>txyz</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r544122420-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -213,9 +294,6 @@
     <t>November 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Toni R, Public Relations Manager at Candlewood Suites Fort Worth West, responded to this reviewResponded December 28, 2017</t>
   </si>
   <si>
@@ -225,9 +303,6 @@
     <t>Stayed in this hotel to attend a wedding in Aledo, a nearby town. The location was great, only an easy 15 min drive to the wedding venue there. The room was clean and the furnishings were new looking. Everything worked as expected and the mini-kitchen was handy- it even had a full sized apartment refrigerator. Water pressure was awesome and the beds were comfy. I have rarely slept in a more quiet room. Overall I was very pleased with the hotel and the staff.More</t>
   </si>
   <si>
-    <t>Betsy B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r491556485-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -246,9 +321,6 @@
     <t>This hotel was great!  We had to spend a week in Fort Worth having tests done at Baylor Scott &amp; White All Saints.  The hotel is about 10 miles away from the downtown medical complex but it is easy to get to using Loop 820, I-30 and exit on Rosedale, down Rosedale and one right turn to get to the hospital.  The hotel is close to Albertson's and Kroger and various eating places.  There is a park behind the hotel with walking paths.The price was reasonable and there is a discounted rate for longer term stays.  The laundry is free and there is a small store in the hotel for food and other items.  The full kitchen includes silverware, plates, cups, bowls, toaster, storage dishes and has a locker area where you can borrow larger appliances.You should be aware that no breakfast is provided so you will need to supply your own breakfast items.  These are available in the on-site store.More</t>
   </si>
   <si>
-    <t>Woody-in-Paris</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r479975854-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -268,9 +340,6 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>IcebergSlim06</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r478524999-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
@@ -313,9 +382,6 @@
 (7) The next morning...It's been a while since we've stayed at a "budget-friendly" hotel and decided on this property for an overnight stay based on the reviews and location. PROS: The room was adequately clean. CONS: (1) Check-in was bland. The agent had no personality whatsoever and seemed to care less about anything except getting back to the nap that I obviously interrupted. (2) Entering the "King" suite that I originally booked (via customer care) was discovered to be booked as a "Queen" suite. This is NOT a queen bed!!! Full size at best, but definitely NOT a queen bed. (3) Went to verify that the bed was Queen and was told yes (I'm not a furniture salesman but I know what a queen-size mattress is). (4) Asked for an upgrade to King and was told that normally an upgrade would not be a problem but the hotel was full. Went back upstairs and checked availability online and discovered there were plenty of King rooms available. (5) The a/c wall control did not work. Had to control the temp by the wall unit which made it difficult to maintain a comfortable temp. I'm pretty sure the unit was malfunctioning as I tried to adjust the temp for at least an hour at different settings. (6) The noise from the Interstate is HORRIBLE! If you want any type of quiet, DO NOT stay in a room on the highway side. (7) The next morning we discovered the $25 incidental charge turned out to be a $53 charge based on a "system glitch" that should drop-off in a few days. I am totally disappointed with this stay. Hopefully check-out will be a smooth transition.More</t>
   </si>
   <si>
-    <t>Michael M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r471649774-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -334,12 +400,6 @@
     <t>March 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>rescuedby1</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r467060107-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -355,9 +415,6 @@
     <t>Finally a comfy room that didn't feel crawly.  Clean and kitchenette.  Remote needs help. Air conditioner a little loud.  Definitely would stay again.  The bed was comfy and it all felt safe.  Easy to reach location.</t>
   </si>
   <si>
-    <t>Rick D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r455231665-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -382,9 +439,6 @@
     <t>Stayed here for a work trip. Candlewood was recommended as it was close to the my work location.The Good:Hotel was clean and the room was spacious with a full size refrigerator and kitchenette with microwave and sink. King size bed was comfortable, wifi was strong.The Bad: The tap water was cloudy and had an odor. Breakfast was breakfast bars and apples and oranges. It is far from downtown Fort Worth, closest shopping was a Wal-Mart across the highway. Only real dining option was a Chiles across the street as well.Not a bad place if you just want to lay your head down for an evening, but there is very little around.More</t>
   </si>
   <si>
-    <t>Reid F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r454772432-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -412,9 +466,6 @@
     <t>Recently, my wife and I needed a 5 day spot in Fort Worth to camp while tending to my wife's aging parents. We bid on this property through Priceline and received a great deal. But better than the deal was the property itself. This is a relatively new facility and was in very good condition, but it was also obvious it was being well maintained. We had never used a Candlewood before, and were a bit surprised Priceline listed it as a 3 Star property (it is more properly 2 star by their own admission) but that said, it was great. The staff was friendly, welcoming and knowledgable. The room, inexpensively but tastefully and well appointed. We LOVED having a true kitchen and full sized refrigerator. The free wifi was a bit slow but adequate for most needs. The location was really perfect for us in terms of available services and amenities - stores, etc., and in terms of being able to get to the various parts of town we needed quickly being right off the Jim Wright Freeway. It is a safe location. Immediate access to an outdoor public walking track was very nice. And Candlewood's lending area for kitchen appliances is really neat and well stocked. Nope, it's not 3 star - but all in all, we'd happily stay there again. We were impressed and pleased all the way around.More</t>
   </si>
   <si>
-    <t>linzerhi</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r438847055-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -442,9 +493,6 @@
     <t>I stayed at the Candlewood Suites while in town for a convention.My room was comfortable and clean and I enjoyed having the kitchenette and refrigerator in my room.I liked the park behind the hotel.   It is some ball fields with a 1/2 mile jogging trail around it.  Very convenient for getting some exercise and it was well lit in the evenings I decided to use it. The staff was very friend and helpful, suggesting local businesses for various items I needed during my stay.If you stay here, the only thing to be aware of, as an extended stay hotel, they only service your room once a week.   The price was better than comparable hotels with daily room servicing, so that was completely acceptable to me.  They were willing to provide clean towels and linens upon request.if I was in the area, I would definitely stay here again.More</t>
   </si>
   <si>
-    <t>Jenna L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r407648016-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -463,9 +511,6 @@
     <t>August 2016</t>
   </si>
   <si>
-    <t>daniellef259</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r403609611-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -484,9 +529,6 @@
     <t>Far exceeded my expectations, wonderful sized room with all the amenities including a full size fridge and stove, plenty of additional seating in the room, comfy beds and pillows and great towels. Bathroom was clean, there wasn't overcrowding of the area by too many pictures on the walls like some places do. I loved the kitchen cupboard/snack bar area available to guests and the cute calendar on the wall in the lobby that let you know when grab-and-go breakfast and breakfast was available. Staff was super sweet. Only problem I had was that my key card would stop functioning, I had to get it reprogrammed 2x and then just replaced. They said it's sensitive to phones, but I kept it in my wallet. Oh and the gym had plenty of space which is really nice! Great stay, highly recommend to anyone. Location is close to some good eating places, 10 minutes from the Air Force base and right off two highways.More</t>
   </si>
   <si>
-    <t>lessmith</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r388207516-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -505,9 +547,6 @@
     <t>July 2016</t>
   </si>
   <si>
-    <t>Kathryn H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r367759541-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -535,9 +574,6 @@
     <t>The hotel was very good, quiet.  Front desk was very helpful and friendly.  I only have two suggestions:  softer mattress and room was not freshened after our first night's stay.  We had to request more towels at the front desk for out second night.  It was good to have a kitchenette in the room.  Stocked very nicely.More</t>
   </si>
   <si>
-    <t>Matthew H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r344652531-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -556,9 +592,6 @@
     <t>February 2016</t>
   </si>
   <si>
-    <t>Kevin  P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r343315620-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -589,9 +622,6 @@
     <t>Excellent service and friendly staff. Stayed here multiple times with no problems. Always friendly and courteous staff and willing to help out. Great location easy to get to from Will Rogers Coliseum. More</t>
   </si>
   <si>
-    <t>historyfanatics</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r343223576-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -610,9 +640,6 @@
     <t>Helpful staff - gave me directions to get where I needed to go.  Due to a meeting, I needed a later check-out.  The staff made it happen.The suite - what can I say?  Very comfortable.  I especially like being able to see the TV while seated on the toilet.  It lets me keep abreast of the weather.More</t>
   </si>
   <si>
-    <t>716tomj</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r332267509-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -640,9 +667,6 @@
     <t>We really enjoyed our stay at this Candlewood Suites while visiting our son. The staff goes out of their way to make sure you are comfortable and happy. The room was very clean and comfortable. We plan on staying there whenever we visit our son.More</t>
   </si>
   <si>
-    <t>Jackie C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r332103224-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -664,9 +688,6 @@
     <t>He used this property for family that had traveled from St Louis to Texas. Two adults and a little chihuahua stayed here for a week and they absolutely loved it.  The location of the property gave them all kinds of options for food as well as shopping at Walmart which was really nice because these units have full kitchens which allowed them to cook some of their meals in and shoes to go out if they wanted to.More</t>
   </si>
   <si>
-    <t>Larry G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r329594449-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -691,9 +712,6 @@
     <t>My wife and I have spent almost a year staying in various Candlewood Suites in Texas and Tennessee; often times for over a month or two. So we know our Candlewood Suites and in fact we have stayed in other extended stay motels as well. Not one of the extended stay motels can hold a candle to Candlewood Suites, most of the time; no pun intended. I say this because we have stayed in a few Candlewood Suites that have been just okay, but the Candlewood Suites here in Fort Worth, Texas on Jim Wright Freeway is absolutely fantastic as Candlewood Suites goes. The staff are friendly, the motel bright, fresh and clean. The accommodations very nice. In fact being that this motel is created to be more of a middle of the road type place, travelers will be astounded to find that it instead has a very spa feeling to it, which my wife was constantly making reference to. She has been to a lot of high end spas across the country. No Candlewood Suites is not a spa, but the way everything works together to give the customer the best they can at all times is the spirit of this Candlewood Suites. Thanks to you all at the Candlewood Suites of Fort Worth, Texas. Deborah and I will always remember your kindness...LarryMore</t>
   </si>
   <si>
-    <t>michaelmQ407SY</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r329186928-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -721,9 +739,6 @@
     <t>Clean property, courteous staff and easy stay. I highly recommend this hotel for business or personal use. When we had an issue with our car, the front desk staff were quick to help. The property is close to the interstate and many stores and shopping centers. We were concerned with the distance into Ft. Worth but transportation wasn't a problem.More</t>
   </si>
   <si>
-    <t>janab716</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r329082223-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -742,9 +757,6 @@
     <t>I enjoyed staying at Candlewood Suites-Ft. Worth West. The staff is excellent, and go above and beyond expectations. Very clean and safe hotel! It's always a joy to stay at this hotel because it feels a little like home:).More</t>
   </si>
   <si>
-    <t>959dalew</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r328262567-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -769,9 +781,6 @@
     <t>The rooms are great, clean comfortable beds and a great staff. Appreciated all the help and patience with the family.  Just a great place to stay. The staff did everything they could to make our stay great. We thank themMore</t>
   </si>
   <si>
-    <t>Dennis Q</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r311779322-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -794,9 +803,6 @@
   </si>
   <si>
     <t>Made reservations and prepaid in advance. The general manager cancelled and gave away our room, and we spent an hour trying to find another hotel to stay at (at 1030 pm) as they were now all booked up. When we got there the 3rd string was in, and the manager's "give a sh$!", was completely broken.  This hotel did this to at least 6 other families, and there was an older couple there before us who had been waiting for a couple of hours and nothing was being done until we started to complain about finding another room.  We booked this location because of a softball tournament that was happening, quite literally "in their back yard".  Now we have to stay at another hotel and be inconvenienced by a drive and traffic.  This is the worst experience ever.  As a member of the Armed Forces, I utilize IHG and their partner hotels all the time, and this was simply the worst experience ever, especially now because this was the first time my family was with me.  Perhaps never again will we use this chain.  I truly hope not all managers cancel and give away a prepaid room.More</t>
-  </si>
-  <si>
-    <t>RoadKill2442</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r295442288-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
@@ -834,9 +840,6 @@
 The staff members were very pleasant to interact with and I later discovered that the owner was one of the ladies who was on site. I wish I would have known. I would have asked her if I could stay there longer. I look forward to staying at Candlewood Suites during...I have stayed in suites before, but this one was one of the nicest ones I have ever set foot in. It has a complete kitchen, a desk, recliner, two Queen sized beds, large closet, and large restroom.There is an iron and ironing board in the closet. I actually got to use it! The beds were comfortable and Dish Network is on the television. The only complaints I had were the Wi-Fi signal was weak, and so was the shower pressure. I only got 2 bars in the room (#122), so I just used my phone for checking my email. I think the shower head is the gentle type. Sometimes I prefer the massaging type that other hotels have. The also wasn't an inner curtain in the shower, so the floor had puddles after the shower. There is a lending cabinet with games and appliances. You can also borrow movies from the front desk. There is also a gym and sauna.  I didn't get the opportunity to use any of those amenities, but they looked to be well taken care of. They even had cat and dog treats.The staff members were very pleasant to interact with and I later discovered that the owner was one of the ladies who was on site. I wish I would have known. I would have asked her if I could stay there longer. I look forward to staying at Candlewood Suites during my next visit to White Settlement.More</t>
   </si>
   <si>
-    <t>GerardNotts</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r282137763-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -864,9 +867,6 @@
     <t>stayed for three weeks in June 2015 . the hotel is well located easy to access from the highway. The room was clean, comfortable and above all quiet. The staff on reception were friendly, welcoming and helpful facilities such as the gym and laundry were good.More</t>
   </si>
   <si>
-    <t>Corpus Christi S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r265834512-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -894,9 +894,6 @@
     <t>This is an extended stay hotel, didn't know that when accounting booked it for me and my work crew.  That means you get your room cleaned every 7 days, and have to go exchange dirty towels for clean towels at the front desk.  A minor inconvenience, but for what they charged a night it's ridiculous. The rooms were pretty run-down, like only dirty construction workers stayed there.  We are also in the construction industry, but we do high-end custom sign work, with very clean work crews.The main reason I wouldn't stay here again is the owner/manager dude was rude to my two Hispanic workers whom are clean-cut Texas natives (they were in one room, I was in the other).  And the same owner/manager guy checked us out the next day, went through our luggage, (even though we had it booked for 3 nights), and was giving my two workers crap about it.  He never said anything to me (I'm white), and no extra charges showed up, but I don't like my workers being talked down to like that.  Stay at the Best Western across the highway, or pay twice as much and stay in downtown Ft. Worth.More</t>
   </si>
   <si>
-    <t>dRicheyJune2011</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r258944093-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -924,9 +921,6 @@
     <t>Got a fair deal for the night when snow prevented me from getting home and being able to get back to work the next day. Staff is always friendly at candlewood suites ! Fruit and muffins for breakfast. They h every comfortable beds and pillows. Rooms clean!!  More</t>
   </si>
   <si>
-    <t>AngelaKH1975</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r254958697-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -945,9 +939,6 @@
     <t>My friends and I stayed three nights in this hotel, and we found the room to be spacious, the beds to be comfortable, and the staff to be extremely accommodating.  Two members of our party required a handicapped accessible room with a roll-in shower, and they were able to meet this need on short notice.  We liked the amenities of the "Candlewood Cupboard," giving us access to snacks and beverages to purchase.  We would definitely stay here again.More</t>
   </si>
   <si>
-    <t>VENSIM</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r253570603-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -963,9 +954,6 @@
     <t>Stayed here one night while in town for stockshow.  Great room at a very good price. All the staff we interacted with were exceptionally friendly and accommodating.  In a good area of town that is close to restaurants, stores and more.  Easy access onto 820 on the west side of Fort Worth.   Highway noise was minimal.  Room had a comfortable bed, refrigerator, microwave, coffee maker and one burner ceramic cooktop.  Also provides some dishes and pots and pans for your convenience.  We will be looking for Candlewood Suites in our future travels!!</t>
   </si>
   <si>
-    <t>Prussik</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r247487082-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -990,9 +978,6 @@
     <t>Upscale suite hotel with large rooms and a full kitchenette.  Very comfortable beds.  Unless you want an energy bar for breakfast, buy some food across the freeway at the supermarket.  Access is difficult from the freeway and GPS instructions let me down.  You should take exit 5, not exit 4 and enter from Clifford Street.  There was no setting for the room heater to operate with the fan continually on, so cycling was a bit annoying at night.  I would definitely stay here again.More</t>
   </si>
   <si>
-    <t>JoWoodring</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r246747741-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1011,9 +996,6 @@
     <t>This is an extended stay hotel, but we only stayed one night.  It was very spacious and clean with a full size fridge, sink, stove, and dishwasher to boot.  I would definitely recommend this place.  The staff was friendly and informative.  My only negative would be the "to go" breakfast, but since most people would be staying longer, they'd probably fix their own.More</t>
   </si>
   <si>
-    <t>almaanne</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r245988541-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1032,9 +1014,6 @@
     <t>I slept so well that I had trouble awakening.  This never happens due to my arthritis.  I have not slept so well in years!  I actually looked at the mattress to see what kind it was (Sealy Postrepedic) and thick mattress pad, but not a pillow-type.  I am going to buy this type of mattress.  The room was spacious and had more than enough amenities.  The place was dead quiet.  We could not hear people in other rooms unless we were walking past their doors in the hallway and they were near the door and talking. The breakfast bar has excellent fruit and breakfast bars, but no cereal or anything else. No protein.More</t>
   </si>
   <si>
-    <t>aprilstrick</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r237873799-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1056,9 +1035,6 @@
     <t>The staff at this facility were SO incredibly helpful &amp; friendly.  The room had a full sized refrigerator, a microwave, a cooktop, and the dishes/utensils needed for cooking.  I didn't do any cooking in the room, but it would be very helpful to have all this if someone wanted to eat in their room.Due to the fact that this is an extended stay property, no one comes into your room to clean daily, which I loved.  When I needed clean towels, I took the soiled ones to the front desk &amp; they replaced with fresh, clean towels.The property also has free laundry facilities.  I didn't stay long enough to need to wash clothes, but it was nice to know it was available.If my travels take me back to White Settlement, or anywhere close to it, I will be staying here!!More</t>
   </si>
   <si>
-    <t>Elaine S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r234623413-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1086,9 +1062,6 @@
     <t>A very clean Candlewood.  We made the mistake of staying on the freeway side of the building, so it was noisy at night, and the beds were hard.  Otherwise, it was a good stay.  It's a relatively new hotel, so it hasn't had a lot of wear and tear.More</t>
   </si>
   <si>
-    <t>Lavender_101</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r212888065-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1116,9 +1089,6 @@
     <t>I really enjoyed staying at the hotel. It was very clean and the beds are so comfy. The staff was great and so friendly. I was really impressed with this hotel over-all. Will definitely stay here again when in the area. the only drawback is there is no pool, but we really did not need it this trip but would be nice if this were a different kind of trip.More</t>
   </si>
   <si>
-    <t>Pamschultz</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r211555603-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1143,9 +1113,6 @@
     <t>We moved here from Utah and booked our room here for 14 nights while we house searched. We were very impressed with the room and laundry facility as well as the gym area. The staff was super wonderful and extremely friendly and willing to offer input on where we can go for some family fun. We were a little disappointed that there wasn't a  pool, but there is a nice park just across the parking lot that we enjoyed every night after dinner. I would definitely recommend this hotel to anyone with children and or pets. We had our pit bull and cat with us and they enjoyed their stay here too. More</t>
   </si>
   <si>
-    <t>TommyJ2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r210963586-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1170,9 +1137,6 @@
     <t>I recently spent a month in the DFW area. This was not my original hotel, but after a few disgusting nights, I started to research alternatives. When I found the Candlewood Suites, I called and decided to give this place a try. I am so glad that I did. The hotel is clean, convenient and the people are great! I have never stayed in a Candlewood before, but will look to them for my travel needs from now on. Special shout out to Victor, the General Manager. He is incredibly accomidating and really cares about his guests. Their motto is "Consider us home" and I was able to do that!More</t>
   </si>
   <si>
-    <t>rb913</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r205724777-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1200,9 +1164,6 @@
     <t>Stayed here for just one night while visiting the Dallas area recently.  Overall -- a great experience.  I thought the bed was comfortable.  Didn't have any issues with the shower -- water pressure or temperature -- like some previous reviewers.  Very convenient to have a suite -- spacious room with fridge, microwave, dishes, etc.  Seemed to be in a good location too -- a lot of shops and restaurants nearby (not sure if I'd call it "walking distance" because you have to cross a highway -- but they are close).  My one and only complaint -- a little slow on the check-in.  I had called ahead to see if I could check-in a little early.  Was told it wouldn't be a problem -- but when I arrived, it seemed my room was not ready.  They had to switch some things around.  A little bit of a wait -- but I do appreciate that they let me in early as I had a meeting to get ready for.More</t>
   </si>
   <si>
-    <t>greg2171</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r205457883-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1227,9 +1188,6 @@
     <t>My family and I stayed here for a weekend in April 2014. The hotel exterior was clean and well lit at night. The check-in process was quick and efficient. The front desk clerk was friendly and helpful. The room we stayed in was a two queen bed room. The mattress was too firm and we didn't get the best sleep. The room had a full sized refrigerator, an electric range top and a microwave oven. The room was large and spacious. It had a large flat screen TV and DVD player. My other complaint was the lack of any kind of relaxing sitting chair other than the desk/dinner table chair, something we've had at other Candlewoods. The bathroom was large and well stocked with standard toiletries. Both the room and bathroom were clean. Overall the hotel is a nice, average place to stay. For the same price, next time I would stay at a Holiday Inn Express or a Holiday Inn. More</t>
   </si>
   <si>
-    <t>Simon C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r201831710-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1254,9 +1212,6 @@
     <t>After traveling and long working day it was pleasure to check into  Candlewood Suites. The lobby was bright but relaxing. The service was prompt and with smile. The room was big with full amenities kitchenette. The work desk and the area around were spacious. The wi-fi worked like a charm and the bathroom was spotless. Couple little things: I would like better water pressure in the shower and better breakfast selection. Overall, I highly recommend.More</t>
   </si>
   <si>
-    <t>FredrickTX976</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r197109800-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1284,9 +1239,6 @@
     <t>I can't say Thank you enough to Victor and his staff for the wonderful service that was provided during my stay.  The only problem I had was that my stay ended too soon. I have stayed at a lot of hotels and I have never encountered the type of service that you could actually call 5 star quality Service.More</t>
   </si>
   <si>
-    <t>Patrice H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r190379043-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1314,9 +1266,6 @@
     <t>I have ran out of good things to say about my stays at Candlewood.  Victor, Josh, Victoria, Jana and Claudia have spoiled me rotten.  About a year ago I used to stay at another hotel across the way which is also another IHG property but that has changed.  For the last year I have stayed no-where else but at this location.  Victor even made it to where I had reservations at one hotel but was able to price match it because I told him how much I loved stayed at that property.  Again, this is my home away from home.  I highly recommend it.  Very accommodating, and GREAT CUSTOMER SERVICE.  Please check them out if your ever in the White Settlement, TX area.More</t>
   </si>
   <si>
-    <t>Darrell F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r187180539-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1344,9 +1293,6 @@
     <t>This hotel is very new, nice and clean.  The staff treat guests as one of the family.  Each week on Wednesday, they have some form of free Manager's appreciation dinner, i.e. barbeque, chili, tacos, cold cuts etc and in addition, free beer or soda.  I stayed at this hotel over four months and would highly recommend this hotel to anyone.More</t>
   </si>
   <si>
-    <t>Scott N</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r183200190-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1371,9 +1317,6 @@
     <t>My wife &amp; I stayed here for 1-full month in one of their long-term suites, and straight up -- we were both truly impressed at every turn!!  It's hard to put into tangible words, because frankly at 52 years of age -- I've never seen or  experienced this kind of consistency &amp; high-level of service from not just one person -- but from a whole staff.   Literally, they are miles &amp; miles beyond the basic qualities of kind, courteous, and professionalism that one expects in a hotel stay.  What we witnessed and experienced day-in &amp; day-out was that without exception, the entire staff was willing to lend a hand and would do anything in their power to make our stay the most comfortable &amp; satisfying it could possibly be. Jana, Victoria, Rachel, Bart, Victor, Joshua, Claudia; the whole staff in our experience ranks right up there with a $175- $400+ a night hotel, and clearly exceeds the experience of any 2-3 star hotel we've ever stayed in.  We were blessed to have stayed here.  Thank you so much Candlewood Suites staff for everything.Scott &amp; Elia NicholasMore</t>
   </si>
   <si>
-    <t>Mike C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r180923847-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1398,9 +1341,6 @@
     <t>You can generally tell within the first three or so minutes of entering a hotel if its going to be pleasant or not.  This is one of those places where you walk in and think -- "I am going to be A-OK!"  I stayed here for work for one evening and was glad I did.  From the check-in to the check out, the staff was courteous and professional.  The room was spotless, smelled great and well kept.  The workout room was in great shape w/plenty of equipment.  Overall, you can tell the organization and team take pride in keeping this hotel in great shape and IT SHOWS!  So if you're looking for a place to stay  when traveling West of Fort Worth, check this place out.  Its clean, well kept and a good return on your travel dollars.More</t>
   </si>
   <si>
-    <t>sc_knight</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r175142034-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1425,9 +1365,6 @@
     <t>Stayed here for week long business trip. Room was comfortable and roomy. Facility is among the cleanest I've ever stayed. Internet was excellent and free. The park behind the facility is an added bonus. The staff is great and very friendly. Easy one of the best hotels I have stayed at in recent memory. More</t>
   </si>
   <si>
-    <t>Sunshine870</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r158982027-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1455,9 +1392,6 @@
     <t>This place was great until we stayed too long.  We stayed a total of about 4.5 months.  The first 10 weeks were great, no problems.  The last 2 months I kept getting incorrect charges to my credit card (way too much), or charges to the wrong credit card.  This started to happen weekly,  We left because this was becoming too time consuming.  Customer service had told us they wanted us to stay indefinitely (we were new to Fort Worth).  What is sad is that what started out great , left a bad taste in our mouth, and we were very unimpressed with how Victor handled the issues we were having.  My fiancee and I felt that we had become pesty customers, when none of the mistakes that were made were ours.  We will not return to this Candlewood Suites.More</t>
   </si>
   <si>
-    <t>J W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r153104888-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1482,9 +1416,6 @@
     <t>Highly recommend. Prompt knowledgeable staff. Clean common areas. Spacious spotless room and bath. Full size refrigerator, cooktop, microwave, disposal. Well maintained. Great safe location right off highway. Free well lit parking. Behind the hotel is a treed park area plus a ball diamond with a sidewalk all the way around it. Great walking/jogging area. Watched the ball game from the room. Quiet. Slept well. Will stay again.More</t>
   </si>
   <si>
-    <t>IASFortWorth</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r141126051-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1512,9 +1443,6 @@
     <t>Based on posted Trip Advisor’s reviews for this hotel we have decided to stay there and give it a try after we tried many hotels in Fort Worth for the last 10 years. Thankfully we did and stayed for 3 weeks.In addition to previously posted encouraging reviews (which we agree with) regard the location, staff, cleanness, safety and services; I would like to add the following comments;•The hotel has no tolerance policy for noisy guests.•The hotel has designated certain floor for guests with pets.•Big trash cans are placed at the end of each hallway and picked up regularly.•Even though the cleaning schedule is once weekly, however the front desk can accommodate your request if the room needs to be cleaned in less than a week. You can change towels and sheets in between schedule as well.•The computer in the lobby comes in handy if you want to print something.But the real pleasure about the hotel was the staff’s exceptional attitude and willingness to help and that comes as no surprise when you meet the hotel manager who is clearly determined to go the extra mile to ensure that his guests are happy and satisfied; not only when they are there but also when they are ready to come back and that’s why we booked another stay in  November.More</t>
   </si>
   <si>
-    <t>swa5454</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r134149500-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1542,9 +1470,6 @@
     <t>Very good service by staff at this location. I love staying here. The place so clean. Front desk staff did a great job on keep us informed of stores and restaurants in the area. I love the location. My room face the softball fields. I watched softball all night it was great..More</t>
   </si>
   <si>
-    <t>Susan S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r127820303-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1572,9 +1497,6 @@
     <t>We were pleasantly suprised by the friendliness of the staff, from the landscapers to the front desk employee's. All went out of their way to make sure that we felt at home. We have visited the area frequently, in different hotels but this will be our home away from home for future visits. While visiting our son and his wife (we are from Arizona) we particularly enjoyed the easy access to shopping and local attractions - it seemed that everywhere we visited, from vineyards to the lakes, to the botanical gardens were only a couple of minutes away. The hotel is new and very clean and safe, small things like the weekly "family" dinner provided free of charge and free laundry services were something that we didn't expect but taken very serious by the staff.Mid stay, we signed up for the Priority Club Rewards program and look forward to coming back. The only way we won't stay here again is when we purchase property to be closer to our relatives.More</t>
   </si>
   <si>
-    <t>JayL1111</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r126911343-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1596,9 +1518,6 @@
     <t>I was passing through Ft Wroth on business and was able to book this place for less than $70 for the night.  It was very clean and looked all new in side.  The staff was polite and the standard checkout is not until noon.  I will stay here again if I'm ever in the area.More</t>
   </si>
   <si>
-    <t>Danelle A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r125406832-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1620,9 +1539,6 @@
     <t>Our family relocated to the Fort Worth area due to my husband's job.  We stayed at the Candlewood for a month while awaiting closing on the house we purchased.  The staff was very friendly and always willing to do what they could to make our stay comfortable.  The location of the hotel is great.  Close to the freeways to get where you need quickly and conveniently and there are many amenities just around the corner from the hotel to include restaurants, shopping, etc.  Though the suite is just one room, it is spacious and well layed out.  The staff accommodated us with an extra table and chairs during our stay.  There is no oven and just a small stove top that takes a while to cook anything, 40 minutes to boil water.  But the microwave is a nice size and there is a full size fridge and freezer.  I brought along a crockpot and it worked nicely to prepare dinners during our stay.  Since my husband was at work and my kids were in school, I didn't want to rely on eating out every night for an entire month.  The provided washers and dryers were a great touch.  So glad I didn't have to spend afternoons at a laundromat.  Since the laundry area is just off the work out center, I could easily take care of both at the same time.  The availability of the computers was nice too.  It...Our family relocated to the Fort Worth area due to my husband's job.  We stayed at the Candlewood for a month while awaiting closing on the house we purchased.  The staff was very friendly and always willing to do what they could to make our stay comfortable.  The location of the hotel is great.  Close to the freeways to get where you need quickly and conveniently and there are many amenities just around the corner from the hotel to include restaurants, shopping, etc.  Though the suite is just one room, it is spacious and well layed out.  The staff accommodated us with an extra table and chairs during our stay.  There is no oven and just a small stove top that takes a while to cook anything, 40 minutes to boil water.  But the microwave is a nice size and there is a full size fridge and freezer.  I brought along a crockpot and it worked nicely to prepare dinners during our stay.  Since my husband was at work and my kids were in school, I didn't want to rely on eating out every night for an entire month.  The provided washers and dryers were a great touch.  So glad I didn't have to spend afternoons at a laundromat.  Since the laundry area is just off the work out center, I could easily take care of both at the same time.  The availability of the computers was nice too.  It was especially helpful to be able to use the printer and have faxes sent during the house buying process.  There is wifi available too for using all your devices in the room.  The manager's night every Wednesday was nice too.  Good way to meet other people in the temp phase and exchange stories that help with the decision making process.  I would highly recommend this Candlewood Suites for the cost, convenience and service.More</t>
   </si>
   <si>
-    <t>amber51511</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r123849818-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1647,9 +1563,6 @@
     <t>Another wonderful experience. This was my second time and looked to be under new management but still a very fine establishment. Looks as though changes are coming soon but I don't doubt they will be wonderful ones. More</t>
   </si>
   <si>
-    <t>Pastrimino</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r121913360-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1671,9 +1584,6 @@
     <t>New Hotel, very nice.  Outstanding, friendly staff.  They provided a BBQ meal on Wednesday evening and I understand they have a meal every Wednesday evening for their guests.  Excellent place to stay especially if staying multiple days.  Spacious room, kitchen with full size fridge, dishwasher, stove, microwave etc.  I had excellent internet connection, wifi or hardwire available.More</t>
   </si>
   <si>
-    <t>SamTexas123123</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r121198944-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1701,9 +1611,6 @@
     <t>I stayed here for a week on business. The place looked brand new! Spotless! It is like a small apt with large full kitchen : refrig, stove, micro, dishwasher, etc. There is a table for eating, huge man size lazy boy chair for relaxing &amp; very nice, comfy bed. The bathroom is large &amp; was very clean - again ,,, everything looks brand new! On the first floor there is a free washer / dryer. They also have a small snack shop in the lobby. It is located between the freeway &amp; a baseball field which I thought would be noisy - but there was ZERO traffic heard inside the room. Also the lights from the baseball field did not shine into the room because they have "black out" curtains. The clerk at the checkin was VERY SWEET!!!   ; )Only con: I could not figure out how to rent movies on the TV. I do not think that is an option at this hotel. :(More</t>
   </si>
   <si>
-    <t>Eric B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r120727088-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1722,9 +1629,6 @@
     <t>The only reason it is not my best stay, is the other Hotel was the Breakers in Florida, which is a true 5* hotel/resort, but I paid serious $ for that.This hotel is not attempting to be a 5* hotel, but actually gives above 5* hotel service!I cannot say enough about the staff!  The staff of this hotel is the best I have ever seen, and even beats numerous 4-5* hotels I have stayed at! Karen and her employee's made us feel at home and by the time I left we felt like friends.  I can tell they care about keeping the hotel well maintained and respond to requests immediately.The hotel and rooms were immaculate, new and extremely well maintained.They even offer dinner on Wednesday's at no charge.  The management is present and is looking for what they can do to make this the best hotel possible.This is the only hotel I have ever stayed at where all the staff was working to ensure repeat biz.They succeeded, and will get mine.They also succeeded in getting me to write two reviews.  I rarely bother to do so. I told the other hotel I stayed at on this trip (a +$200/night hotel) they were inferior in service to this one.The trip was for business, but I had my family along.  It was wonderful for all of us.More</t>
   </si>
   <si>
-    <t>boxersdaddy</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r119776191-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1761,9 +1665,6 @@
     <t xml:space="preserve">My boyfriend and I were celebrating our anniversary and we did a lot of research as to where we wanted to stay but had no time to make a reservation. We walked in and it was an experience unlike any other him or I have had with previous hotels. Trinell at the front desk has a perfect balance between professionalism and acqaintanship. The rooms were clean and everything was placed to make it feel like home. We have plans to come back quite often. </t>
   </si>
   <si>
-    <t>Ty L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r118509188-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1785,9 +1686,6 @@
     <t>I was sent to FT. Worth for a military school for 2 weeks. I did not have any reservations, so I just went hoping I would be able to find a room. My first stop was Candlewood Suites. As soon as I walked in the door, I was treated with respect and given a tour of the rooms, and facilities.  The price was great for the area. The whole time I stayed at the Facility, I was treated as if I had just walked in.  I want to give a special thanks to Lisa, Rosetta, Mary, and Trinell. They are an Awsome staff, and I will tell anyone who wants a place to stay in Ft Worth,( To StayHere)  Five Star Service.More</t>
   </si>
   <si>
-    <t>Roderick D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r118120428-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1803,9 +1701,6 @@
     <t>The staff is so Awesome here that I have stayed three times, and am planning my next 3 day visit before Sept. 30TH.  From Hussein &amp; Max, to Prisilla and Destiny, you will never find better service.  In addition, the cleanliness and modern decor of the facility, the laundry room is excellent.  Hat's Off to Sal, the hotel manager.  You have great taste in choosing staff!</t>
   </si>
   <si>
-    <t>bsdarlin</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r116077504-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1824,9 +1719,6 @@
     <t>June 2011</t>
   </si>
   <si>
-    <t>jhaz612</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r113331346-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1843,9 +1735,6 @@
   </si>
   <si>
     <t>After a thirteen hour drive with my wife and two (slightly high maintenance) teenage daughters for a family wedding in DFW, we couldn't have asked for a more pleasant welcome and stay.  From the phone call to make our  reservation, to the welcome we received at our 1:00 a.m. check-in, through checking out three days later, every interaction with any staff member, including housekeeping and maintenance was a genuinely pleasant and service oriented exchange.  The facility is brand new and final touches were being added while we stayed with NO inconvenience or disruption.  I've traveled on personal and business trips for over twenty years, and have stayed in more star hotels from L.A. to New York, the suites at Candlewood are very nice, but the people who made us feel at home are second to none.  A remarkable customer experience!More</t>
-  </si>
-  <si>
-    <t>tama0611</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d1856883-r111506436-Candlewood_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
@@ -2368,121 +2257,111 @@
       <c r="A2" t="n">
         <v>60849</v>
       </c>
-      <c r="B2" t="n">
-        <v>70866</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="n">
-        <v>5</v>
-      </c>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
         <v>55</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>56</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>60849</v>
       </c>
-      <c r="B3" t="n">
-        <v>47638</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
         <v>59</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>60</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>61</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>62</v>
       </c>
-      <c r="L3" t="s">
-        <v>63</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s">
-        <v>64</v>
-      </c>
       <c r="O3" t="s">
-        <v>65</v>
-      </c>
-      <c r="P3" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
       <c r="Q3" t="s"/>
       <c r="R3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
@@ -2493,68 +2372,78 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="X3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="Y3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>60849</v>
       </c>
-      <c r="B4" t="n">
-        <v>18846</v>
-      </c>
-      <c r="C4" t="s">
-        <v>69</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
         <v>70</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
         <v>71</v>
       </c>
-      <c r="J4" t="s">
+      <c r="O4" t="s">
         <v>72</v>
       </c>
-      <c r="K4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L4" t="s">
-        <v>74</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
+      <c r="W4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s">
+        <v>74</v>
+      </c>
       <c r="Y4" t="s">
         <v>75</v>
       </c>
@@ -2563,112 +2452,110 @@
       <c r="A5" t="n">
         <v>60849</v>
       </c>
-      <c r="B5" t="n">
-        <v>124176</v>
-      </c>
-      <c r="C5" t="s">
-        <v>76</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
         <v>77</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>78</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>79</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>80</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>81</v>
       </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>82</v>
-      </c>
-      <c r="O5" t="s">
-        <v>83</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
+      <c r="W5" t="s">
+        <v>83</v>
+      </c>
+      <c r="X5" t="s">
+        <v>84</v>
+      </c>
       <c r="Y5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>60849</v>
       </c>
-      <c r="B6" t="n">
-        <v>124177</v>
-      </c>
-      <c r="C6" t="s">
-        <v>84</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="O6" t="s">
-        <v>65</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="n">
         <v>4</v>
@@ -2676,130 +2563,116 @@
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="X6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Y6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>60849</v>
       </c>
-      <c r="B7" t="n">
-        <v>3657</v>
-      </c>
-      <c r="C7" t="s">
-        <v>93</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
-      <c r="N7" t="s">
-        <v>99</v>
-      </c>
-      <c r="O7" t="s">
-        <v>100</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5</v>
-      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
-      <c r="S7" t="n">
-        <v>5</v>
-      </c>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>60849</v>
       </c>
-      <c r="B8" t="n">
-        <v>124178</v>
-      </c>
-      <c r="C8" t="s">
-        <v>101</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
         <v>102</v>
       </c>
-      <c r="G8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>103</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>104</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>105</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
         <v>106</v>
       </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s"/>
-      <c r="O8" t="s"/>
+      <c r="O8" t="s">
+        <v>107</v>
+      </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
@@ -2812,33 +2685,29 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>60849</v>
       </c>
-      <c r="B9" t="n">
-        <v>38905</v>
-      </c>
-      <c r="C9" t="s">
-        <v>107</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
         <v>108</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
         <v>109</v>
@@ -2853,16 +2722,26 @@
         <v>112</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
-      </c>
-      <c r="N9" t="s"/>
-      <c r="O9" t="s"/>
-      <c r="P9" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>106</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
       <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
@@ -2880,56 +2759,52 @@
       <c r="A10" t="n">
         <v>60849</v>
       </c>
-      <c r="B10" t="n">
-        <v>124179</v>
-      </c>
-      <c r="C10" t="s">
-        <v>116</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
         <v>117</v>
       </c>
-      <c r="G10" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>118</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>119</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>120</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>121</v>
       </c>
-      <c r="M10" t="n">
-        <v>4</v>
-      </c>
-      <c r="N10" t="s">
-        <v>122</v>
-      </c>
       <c r="O10" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="P10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q10" t="s"/>
-      <c r="R10" t="n">
-        <v>4</v>
-      </c>
-      <c r="S10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
         <v>5</v>
@@ -2937,133 +2812,103 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s">
-        <v>123</v>
-      </c>
-      <c r="X10" t="s">
-        <v>124</v>
-      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>60849</v>
       </c>
-      <c r="B11" t="n">
-        <v>124180</v>
-      </c>
-      <c r="C11" t="s">
-        <v>126</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J11" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="K11" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="L11" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
-      <c r="N11" t="s">
-        <v>132</v>
-      </c>
-      <c r="O11" t="s">
-        <v>100</v>
-      </c>
-      <c r="P11" t="n">
-        <v>5</v>
-      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>4</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>133</v>
-      </c>
-      <c r="X11" t="s">
-        <v>134</v>
-      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>60849</v>
       </c>
-      <c r="B12" t="n">
-        <v>17554</v>
-      </c>
-      <c r="C12" t="s">
-        <v>136</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="J12" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="K12" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="L12" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N12" t="s">
-        <v>142</v>
-      </c>
-      <c r="O12" t="s">
-        <v>65</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
@@ -3073,63 +2918,65 @@
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
+      <c r="W12" t="s">
+        <v>132</v>
+      </c>
+      <c r="X12" t="s">
+        <v>133</v>
+      </c>
       <c r="Y12" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>60849</v>
       </c>
-      <c r="B13" t="n">
-        <v>124181</v>
-      </c>
-      <c r="C13" t="s">
-        <v>143</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="J13" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="K13" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="L13" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O13" t="s">
-        <v>100</v>
-      </c>
-      <c r="P13" t="s"/>
-      <c r="Q13" t="n">
-        <v>5</v>
-      </c>
-      <c r="R13" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
@@ -3138,196 +2985,188 @@
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
+      <c r="W13" t="s">
+        <v>141</v>
+      </c>
+      <c r="X13" t="s">
+        <v>142</v>
+      </c>
       <c r="Y13" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>60849</v>
       </c>
-      <c r="B14" t="n">
-        <v>124182</v>
-      </c>
-      <c r="C14" t="s">
-        <v>150</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="J14" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="K14" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="L14" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="O14" t="s">
-        <v>65</v>
-      </c>
-      <c r="P14" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
+      <c r="W14" t="s">
+        <v>150</v>
+      </c>
+      <c r="X14" t="s">
+        <v>151</v>
+      </c>
       <c r="Y14" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>60849</v>
       </c>
-      <c r="B15" t="n">
-        <v>12802</v>
-      </c>
-      <c r="C15" t="s">
-        <v>157</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
+        <v>153</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>154</v>
+      </c>
+      <c r="J15" t="s">
+        <v>155</v>
+      </c>
+      <c r="K15" t="s">
+        <v>156</v>
+      </c>
+      <c r="L15" t="s">
+        <v>157</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
         <v>158</v>
       </c>
-      <c r="G15" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15" t="s">
-        <v>159</v>
-      </c>
-      <c r="J15" t="s">
-        <v>160</v>
-      </c>
-      <c r="K15" t="s">
-        <v>161</v>
-      </c>
-      <c r="L15" t="s">
-        <v>162</v>
-      </c>
-      <c r="M15" t="n">
-        <v>5</v>
-      </c>
-      <c r="N15" t="s">
-        <v>163</v>
-      </c>
       <c r="O15" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
-      <c r="R15" t="n">
-        <v>5</v>
-      </c>
+      <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>5</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s">
-        <v>164</v>
-      </c>
-      <c r="X15" t="s">
-        <v>165</v>
-      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>60849</v>
       </c>
-      <c r="B16" t="n">
-        <v>8613</v>
-      </c>
-      <c r="C16" t="s">
-        <v>167</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="J16" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="K16" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="L16" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="O16" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
         <v>5</v>
       </c>
       <c r="R16" t="s"/>
-      <c r="S16" t="n">
-        <v>5</v>
-      </c>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
         <v>5</v>
@@ -3338,54 +3177,50 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>60849</v>
       </c>
-      <c r="B17" t="n">
-        <v>124183</v>
-      </c>
-      <c r="C17" t="s">
-        <v>174</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="J17" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="K17" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="L17" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="O17" t="s">
-        <v>181</v>
+        <v>53</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3396,191 +3231,181 @@
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
-        <v>182</v>
-      </c>
-      <c r="X17" t="s">
-        <v>183</v>
-      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>60849</v>
       </c>
-      <c r="B18" t="n">
-        <v>124184</v>
-      </c>
-      <c r="C18" t="s">
-        <v>185</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="J18" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="K18" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="L18" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="O18" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="X18" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="Y18" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>60849</v>
       </c>
-      <c r="B19" t="n">
-        <v>124185</v>
-      </c>
-      <c r="C19" t="s">
-        <v>192</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="J19" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="K19" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="L19" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="O19" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="P19" t="s"/>
-      <c r="Q19" t="s"/>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
       <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s">
-        <v>199</v>
-      </c>
-      <c r="X19" t="s">
-        <v>200</v>
-      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>60849</v>
       </c>
-      <c r="B20" t="n">
-        <v>124186</v>
-      </c>
-      <c r="C20" t="s">
-        <v>202</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="J20" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="K20" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="L20" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="O20" t="s">
-        <v>65</v>
+        <v>192</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3592,131 +3417,117 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="X20" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="Y20" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>60849</v>
       </c>
-      <c r="B21" t="n">
-        <v>40343</v>
-      </c>
-      <c r="C21" t="s">
-        <v>210</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="J21" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="K21" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="L21" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="O21" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="P21" t="s"/>
-      <c r="Q21" t="n">
-        <v>5</v>
-      </c>
-      <c r="R21" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>5</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="X21" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="Y21" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>60849</v>
       </c>
-      <c r="B22" t="n">
-        <v>124187</v>
-      </c>
-      <c r="C22" t="s">
-        <v>219</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="J22" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="K22" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="L22" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="O22" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3728,60 +3539,56 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="X22" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="Y22" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>60849</v>
       </c>
-      <c r="B23" t="n">
-        <v>124188</v>
-      </c>
-      <c r="C23" t="s">
-        <v>229</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="J23" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="K23" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="L23" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="O23" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3793,125 +3600,123 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="X23" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="Y23" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>60849</v>
       </c>
-      <c r="B24" t="n">
-        <v>124189</v>
-      </c>
-      <c r="C24" t="s">
-        <v>236</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="J24" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="K24" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="L24" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O24" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="P24" t="s"/>
-      <c r="Q24" t="s"/>
-      <c r="R24" t="s"/>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="X24" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="Y24" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>60849</v>
       </c>
-      <c r="B25" t="n">
-        <v>124190</v>
-      </c>
-      <c r="C25" t="s">
-        <v>245</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="J25" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="K25" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="L25" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="O25" t="s">
-        <v>181</v>
+        <v>72</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3923,60 +3728,56 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="X25" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="Y25" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>60849</v>
       </c>
-      <c r="B26" t="n">
-        <v>124191</v>
-      </c>
-      <c r="C26" t="s">
-        <v>254</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="J26" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="K26" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="L26" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>260</v>
+        <v>216</v>
       </c>
       <c r="O26" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3988,200 +3789,178 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="X26" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="Y26" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>60849</v>
       </c>
-      <c r="B27" t="n">
-        <v>124192</v>
-      </c>
-      <c r="C27" t="s">
-        <v>264</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="J27" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="K27" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="L27" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
       <c r="O27" t="s">
-        <v>83</v>
-      </c>
-      <c r="P27" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
       <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>5</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="X27" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="Y27" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>60849</v>
       </c>
-      <c r="B28" t="n">
-        <v>124193</v>
-      </c>
-      <c r="C28" t="s">
-        <v>274</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="J28" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="K28" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="L28" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="M28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>280</v>
+        <v>207</v>
       </c>
       <c r="O28" t="s">
-        <v>100</v>
+        <v>192</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
-      <c r="R28" t="n">
-        <v>4</v>
-      </c>
-      <c r="S28" t="n">
-        <v>2</v>
-      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>2</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="X28" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="Y28" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>60849</v>
       </c>
-      <c r="B29" t="n">
-        <v>124194</v>
-      </c>
-      <c r="C29" t="s">
-        <v>284</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="J29" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="K29" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="L29" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="O29" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4193,69 +3972,63 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="X29" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="Y29" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>60849</v>
       </c>
-      <c r="B30" t="n">
-        <v>124195</v>
-      </c>
-      <c r="C30" t="s">
-        <v>294</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="J30" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="K30" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="L30" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="O30" t="s">
-        <v>181</v>
-      </c>
-      <c r="P30" t="s"/>
-      <c r="Q30" t="n">
-        <v>5</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="s"/>
       <c r="R30" t="s"/>
-      <c r="S30" t="n">
-        <v>5</v>
-      </c>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
         <v>5</v>
@@ -4264,410 +4037,384 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="X30" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="Y30" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>60849</v>
       </c>
-      <c r="B31" t="n">
-        <v>124196</v>
-      </c>
-      <c r="C31" t="s">
-        <v>301</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="J31" t="s">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="K31" t="s">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="L31" t="s">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="M31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="O31" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
       <c r="R31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
+      <c r="W31" t="s">
+        <v>281</v>
+      </c>
+      <c r="X31" t="s">
+        <v>282</v>
+      </c>
       <c r="Y31" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>60849</v>
       </c>
-      <c r="B32" t="n">
-        <v>124197</v>
-      </c>
-      <c r="C32" t="s">
-        <v>307</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="J32" t="s">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="K32" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="L32" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="O32" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="P32" t="s"/>
-      <c r="Q32" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q32" t="s"/>
       <c r="R32" t="s"/>
-      <c r="S32" t="n">
-        <v>5</v>
-      </c>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>4</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="X32" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="Y32" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>60849</v>
       </c>
-      <c r="B33" t="n">
-        <v>124198</v>
-      </c>
-      <c r="C33" t="s">
-        <v>316</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="J33" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="K33" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="L33" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="M33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="O33" t="s">
-        <v>83</v>
-      </c>
-      <c r="P33" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q33" t="s"/>
+        <v>192</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
       <c r="R33" t="s"/>
       <c r="S33" t="n">
         <v>5</v>
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="X33" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="Y33" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>60849</v>
       </c>
-      <c r="B34" t="n">
-        <v>124199</v>
-      </c>
-      <c r="C34" t="s">
-        <v>323</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="J34" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="K34" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="L34" t="s">
-        <v>328</v>
+        <v>303</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="O34" t="s">
-        <v>65</v>
-      </c>
-      <c r="P34" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
-      <c r="R34" t="s"/>
-      <c r="S34" t="s"/>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s">
-        <v>313</v>
-      </c>
-      <c r="X34" t="s">
-        <v>314</v>
-      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>60849</v>
       </c>
-      <c r="B35" t="n">
-        <v>124200</v>
-      </c>
-      <c r="C35" t="s">
-        <v>330</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>331</v>
+        <v>304</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>332</v>
+        <v>305</v>
       </c>
       <c r="J35" t="s">
-        <v>333</v>
+        <v>306</v>
       </c>
       <c r="K35" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="L35" t="s">
-        <v>335</v>
+        <v>308</v>
       </c>
       <c r="M35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>336</v>
+        <v>280</v>
       </c>
       <c r="O35" t="s">
-        <v>100</v>
-      </c>
-      <c r="P35" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q35" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
       <c r="R35" t="s"/>
-      <c r="S35" t="s"/>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="X35" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="Y35" t="s">
-        <v>337</v>
+        <v>311</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>60849</v>
       </c>
-      <c r="B36" t="n">
-        <v>19941</v>
-      </c>
-      <c r="C36" t="s">
-        <v>338</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="J36" t="s">
-        <v>341</v>
+        <v>314</v>
       </c>
       <c r="K36" t="s">
-        <v>342</v>
+        <v>315</v>
       </c>
       <c r="L36" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>344</v>
+        <v>280</v>
       </c>
       <c r="O36" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="P36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q36" t="s"/>
       <c r="R36" t="s"/>
@@ -4676,79 +4423,69 @@
       </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>345</v>
+        <v>309</v>
       </c>
       <c r="X36" t="s">
-        <v>346</v>
+        <v>310</v>
       </c>
       <c r="Y36" t="s">
-        <v>347</v>
+        <v>317</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>60849</v>
       </c>
-      <c r="B37" t="n">
-        <v>124201</v>
-      </c>
-      <c r="C37" t="s">
-        <v>348</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>349</v>
+        <v>318</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>350</v>
+        <v>319</v>
       </c>
       <c r="J37" t="s">
-        <v>351</v>
+        <v>320</v>
       </c>
       <c r="K37" t="s">
-        <v>352</v>
+        <v>321</v>
       </c>
       <c r="L37" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>354</v>
+        <v>280</v>
       </c>
       <c r="O37" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
       </c>
-      <c r="Q37" t="n">
-        <v>5</v>
-      </c>
-      <c r="R37" t="n">
-        <v>4</v>
-      </c>
-      <c r="S37" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
         <v>4</v>
@@ -4757,69 +4494,63 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>355</v>
+        <v>309</v>
       </c>
       <c r="X37" t="s">
-        <v>356</v>
+        <v>310</v>
       </c>
       <c r="Y37" t="s">
-        <v>357</v>
+        <v>323</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>60849</v>
       </c>
-      <c r="B38" t="n">
-        <v>124202</v>
-      </c>
-      <c r="C38" t="s">
-        <v>358</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>359</v>
+        <v>324</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>360</v>
+        <v>325</v>
       </c>
       <c r="J38" t="s">
-        <v>361</v>
+        <v>326</v>
       </c>
       <c r="K38" t="s">
-        <v>362</v>
+        <v>327</v>
       </c>
       <c r="L38" t="s">
-        <v>363</v>
+        <v>328</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
-      <c r="N38" t="s"/>
-      <c r="O38" t="s"/>
+      <c r="N38" t="s">
+        <v>329</v>
+      </c>
+      <c r="O38" t="s">
+        <v>72</v>
+      </c>
       <c r="P38" t="n">
         <v>5</v>
       </c>
-      <c r="Q38" t="n">
-        <v>5</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5</v>
-      </c>
-      <c r="S38" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
         <v>5</v>
@@ -4828,70 +4559,62 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>364</v>
+        <v>309</v>
       </c>
       <c r="X38" t="s">
-        <v>365</v>
+        <v>310</v>
       </c>
       <c r="Y38" t="s">
-        <v>366</v>
+        <v>330</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>60849</v>
       </c>
-      <c r="B39" t="n">
-        <v>124203</v>
-      </c>
-      <c r="C39" t="s">
-        <v>367</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>368</v>
+        <v>331</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="J39" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="K39" t="s">
-        <v>371</v>
+        <v>334</v>
       </c>
       <c r="L39" t="s">
-        <v>372</v>
+        <v>335</v>
       </c>
       <c r="M39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="O39" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
       </c>
-      <c r="Q39" t="n">
-        <v>5</v>
-      </c>
-      <c r="R39" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
       <c r="S39" t="n">
         <v>5</v>
       </c>
@@ -4903,200 +4626,194 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>373</v>
+        <v>337</v>
       </c>
       <c r="X39" t="s">
-        <v>374</v>
+        <v>338</v>
       </c>
       <c r="Y39" t="s">
-        <v>375</v>
+        <v>339</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>60849</v>
       </c>
-      <c r="B40" t="n">
-        <v>32685</v>
-      </c>
-      <c r="C40" t="s">
-        <v>376</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>377</v>
+        <v>340</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>378</v>
+        <v>341</v>
       </c>
       <c r="J40" t="s">
-        <v>379</v>
+        <v>342</v>
       </c>
       <c r="K40" t="s">
-        <v>380</v>
+        <v>343</v>
       </c>
       <c r="L40" t="s">
-        <v>381</v>
+        <v>344</v>
       </c>
       <c r="M40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>382</v>
+        <v>345</v>
       </c>
       <c r="O40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R40" t="n">
         <v>4</v>
       </c>
       <c r="S40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>383</v>
+        <v>346</v>
       </c>
       <c r="X40" t="s">
-        <v>384</v>
+        <v>347</v>
       </c>
       <c r="Y40" t="s">
-        <v>385</v>
+        <v>348</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>60849</v>
       </c>
-      <c r="B41" t="n">
-        <v>124204</v>
-      </c>
-      <c r="C41" t="s">
-        <v>386</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>387</v>
+        <v>349</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>388</v>
+        <v>350</v>
       </c>
       <c r="J41" t="s">
-        <v>389</v>
+        <v>351</v>
       </c>
       <c r="K41" t="s">
-        <v>390</v>
+        <v>352</v>
       </c>
       <c r="L41" t="s">
-        <v>391</v>
+        <v>353</v>
       </c>
       <c r="M41" t="n">
-        <v>3</v>
-      </c>
-      <c r="N41" t="s">
-        <v>382</v>
-      </c>
-      <c r="O41" t="s">
-        <v>65</v>
-      </c>
-      <c r="P41" t="s"/>
-      <c r="Q41" t="s"/>
-      <c r="R41" t="s"/>
-      <c r="S41" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
       <c r="T41" t="s"/>
-      <c r="U41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="X41" t="s">
-        <v>393</v>
+        <v>355</v>
       </c>
       <c r="Y41" t="s">
-        <v>394</v>
+        <v>356</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>60849</v>
       </c>
-      <c r="B42" t="n">
-        <v>112540</v>
-      </c>
-      <c r="C42" t="s">
-        <v>395</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>396</v>
+        <v>357</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>397</v>
+        <v>358</v>
       </c>
       <c r="J42" t="s">
-        <v>398</v>
+        <v>359</v>
       </c>
       <c r="K42" t="s">
-        <v>399</v>
+        <v>360</v>
       </c>
       <c r="L42" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>382</v>
+        <v>345</v>
       </c>
       <c r="O42" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -5118,210 +4835,188 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>401</v>
+        <v>362</v>
       </c>
       <c r="X42" t="s">
-        <v>402</v>
+        <v>363</v>
       </c>
       <c r="Y42" t="s">
-        <v>403</v>
+        <v>364</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>60849</v>
       </c>
-      <c r="B43" t="n">
-        <v>124205</v>
-      </c>
-      <c r="C43" t="s">
-        <v>404</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>405</v>
+        <v>365</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>406</v>
+        <v>366</v>
       </c>
       <c r="J43" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="K43" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="L43" t="s">
-        <v>409</v>
+        <v>369</v>
       </c>
       <c r="M43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>410</v>
+        <v>370</v>
       </c>
       <c r="O43" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="P43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>411</v>
+        <v>371</v>
       </c>
       <c r="X43" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="Y43" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>60849</v>
       </c>
-      <c r="B44" t="n">
-        <v>5902</v>
-      </c>
-      <c r="C44" t="s">
-        <v>414</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>415</v>
+        <v>374</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>416</v>
+        <v>375</v>
       </c>
       <c r="J44" t="s">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="K44" t="s">
-        <v>418</v>
+        <v>377</v>
       </c>
       <c r="L44" t="s">
-        <v>419</v>
+        <v>378</v>
       </c>
       <c r="M44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>420</v>
+        <v>370</v>
       </c>
       <c r="O44" t="s">
-        <v>54</v>
-      </c>
-      <c r="P44" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>5</v>
-      </c>
-      <c r="R44" t="n">
-        <v>5</v>
-      </c>
-      <c r="S44" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
-      <c r="U44" t="n">
-        <v>5</v>
-      </c>
+      <c r="U44" t="s"/>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>421</v>
+        <v>379</v>
       </c>
       <c r="X44" t="s">
-        <v>422</v>
+        <v>380</v>
       </c>
       <c r="Y44" t="s">
-        <v>423</v>
+        <v>381</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>60849</v>
       </c>
-      <c r="B45" t="n">
-        <v>124206</v>
-      </c>
-      <c r="C45" t="s">
-        <v>424</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>425</v>
+        <v>382</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>426</v>
+        <v>383</v>
       </c>
       <c r="J45" t="s">
-        <v>427</v>
+        <v>384</v>
       </c>
       <c r="K45" t="s">
-        <v>428</v>
+        <v>385</v>
       </c>
       <c r="L45" t="s">
-        <v>429</v>
+        <v>386</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>430</v>
+        <v>370</v>
       </c>
       <c r="O45" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -5343,60 +5038,56 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>431</v>
+        <v>387</v>
       </c>
       <c r="X45" t="s">
-        <v>432</v>
+        <v>388</v>
       </c>
       <c r="Y45" t="s">
-        <v>433</v>
+        <v>389</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>60849</v>
       </c>
-      <c r="B46" t="n">
-        <v>88582</v>
-      </c>
-      <c r="C46" t="s">
-        <v>434</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>435</v>
+        <v>390</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="J46" t="s">
-        <v>437</v>
+        <v>392</v>
       </c>
       <c r="K46" t="s">
-        <v>438</v>
+        <v>393</v>
       </c>
       <c r="L46" t="s">
-        <v>439</v>
+        <v>394</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>430</v>
+        <v>395</v>
       </c>
       <c r="O46" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -5405,7 +5096,7 @@
         <v>5</v>
       </c>
       <c r="R46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S46" t="n">
         <v>5</v>
@@ -5418,60 +5109,56 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>440</v>
+        <v>396</v>
       </c>
       <c r="X46" t="s">
-        <v>441</v>
+        <v>397</v>
       </c>
       <c r="Y46" t="s">
-        <v>442</v>
+        <v>398</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>60849</v>
       </c>
-      <c r="B47" t="n">
-        <v>3891</v>
-      </c>
-      <c r="C47" t="s">
-        <v>443</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>444</v>
+        <v>399</v>
       </c>
       <c r="G47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>445</v>
+        <v>400</v>
       </c>
       <c r="J47" t="s">
-        <v>446</v>
+        <v>401</v>
       </c>
       <c r="K47" t="s">
-        <v>447</v>
+        <v>402</v>
       </c>
       <c r="L47" t="s">
-        <v>448</v>
+        <v>403</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>430</v>
+        <v>404</v>
       </c>
       <c r="O47" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -5493,57 +5180,57 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>449</v>
+        <v>405</v>
       </c>
       <c r="X47" t="s">
-        <v>450</v>
+        <v>406</v>
       </c>
       <c r="Y47" t="s">
-        <v>451</v>
+        <v>407</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>60849</v>
       </c>
-      <c r="B48" t="n">
-        <v>124207</v>
-      </c>
-      <c r="C48" t="s">
-        <v>452</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>453</v>
+        <v>408</v>
       </c>
       <c r="G48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>454</v>
+        <v>409</v>
       </c>
       <c r="J48" t="s">
-        <v>455</v>
+        <v>410</v>
       </c>
       <c r="K48" t="s">
-        <v>456</v>
+        <v>411</v>
       </c>
       <c r="L48" t="s">
-        <v>457</v>
+        <v>412</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
-      <c r="N48" t="s"/>
-      <c r="O48" t="s"/>
+      <c r="N48" t="s">
+        <v>413</v>
+      </c>
+      <c r="O48" t="s">
+        <v>72</v>
+      </c>
       <c r="P48" t="n">
         <v>5</v>
       </c>
@@ -5564,66 +5251,62 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>458</v>
+        <v>414</v>
       </c>
       <c r="X48" t="s">
-        <v>459</v>
+        <v>415</v>
       </c>
       <c r="Y48" t="s">
-        <v>460</v>
+        <v>416</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>60849</v>
       </c>
-      <c r="B49" t="n">
-        <v>124208</v>
-      </c>
-      <c r="C49" t="s">
-        <v>461</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>462</v>
+        <v>417</v>
       </c>
       <c r="G49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>463</v>
+        <v>418</v>
       </c>
       <c r="J49" t="s">
-        <v>464</v>
+        <v>419</v>
       </c>
       <c r="K49" t="s">
-        <v>465</v>
+        <v>420</v>
       </c>
       <c r="L49" t="s">
-        <v>466</v>
+        <v>421</v>
       </c>
       <c r="M49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>467</v>
+        <v>413</v>
       </c>
       <c r="O49" t="s">
-        <v>181</v>
+        <v>72</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
       </c>
       <c r="Q49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R49" t="n">
         <v>4</v>
@@ -5633,66 +5316,62 @@
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>468</v>
+        <v>422</v>
       </c>
       <c r="X49" t="s">
-        <v>469</v>
+        <v>423</v>
       </c>
       <c r="Y49" t="s">
-        <v>470</v>
+        <v>424</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>60849</v>
       </c>
-      <c r="B50" t="n">
-        <v>2168</v>
-      </c>
-      <c r="C50" t="s">
-        <v>471</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>472</v>
+        <v>425</v>
       </c>
       <c r="G50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>473</v>
+        <v>426</v>
       </c>
       <c r="J50" t="s">
-        <v>474</v>
+        <v>427</v>
       </c>
       <c r="K50" t="s">
-        <v>475</v>
+        <v>428</v>
       </c>
       <c r="L50" t="s">
-        <v>476</v>
+        <v>429</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>467</v>
+        <v>413</v>
       </c>
       <c r="O50" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -5714,65 +5393,59 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>477</v>
+        <v>430</v>
       </c>
       <c r="X50" t="s">
-        <v>478</v>
+        <v>431</v>
       </c>
       <c r="Y50" t="s">
-        <v>479</v>
+        <v>432</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>60849</v>
       </c>
-      <c r="B51" t="n">
-        <v>124209</v>
-      </c>
-      <c r="C51" t="s">
-        <v>480</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>481</v>
+        <v>433</v>
       </c>
       <c r="G51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>482</v>
+        <v>434</v>
       </c>
       <c r="J51" t="s">
-        <v>483</v>
+        <v>435</v>
       </c>
       <c r="K51" t="s">
-        <v>484</v>
+        <v>436</v>
       </c>
       <c r="L51" t="s">
-        <v>485</v>
+        <v>437</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
-      <c r="N51" t="s">
-        <v>486</v>
-      </c>
-      <c r="O51" t="s">
-        <v>83</v>
-      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
       <c r="P51" t="n">
         <v>5</v>
       </c>
-      <c r="Q51" t="s"/>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
       <c r="R51" t="n">
         <v>5</v>
       </c>
@@ -5787,135 +5460,127 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>487</v>
+        <v>438</v>
       </c>
       <c r="X51" t="s">
-        <v>488</v>
+        <v>439</v>
       </c>
       <c r="Y51" t="s">
-        <v>489</v>
+        <v>440</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>60849</v>
       </c>
-      <c r="B52" t="n">
-        <v>124210</v>
-      </c>
-      <c r="C52" t="s">
-        <v>490</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>491</v>
+        <v>441</v>
       </c>
       <c r="G52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>492</v>
+        <v>442</v>
       </c>
       <c r="J52" t="s">
-        <v>493</v>
+        <v>443</v>
       </c>
       <c r="K52" t="s">
-        <v>494</v>
+        <v>444</v>
       </c>
       <c r="L52" t="s">
-        <v>495</v>
+        <v>445</v>
       </c>
       <c r="M52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N52" t="s">
-        <v>496</v>
+        <v>446</v>
       </c>
       <c r="O52" t="s">
-        <v>100</v>
+        <v>192</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
       </c>
       <c r="Q52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S52" t="n">
         <v>5</v>
       </c>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>497</v>
+        <v>447</v>
       </c>
       <c r="X52" t="s">
-        <v>498</v>
+        <v>448</v>
       </c>
       <c r="Y52" t="s">
-        <v>499</v>
+        <v>449</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>60849</v>
       </c>
-      <c r="B53" t="n">
-        <v>168</v>
-      </c>
-      <c r="C53" t="s">
-        <v>500</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>501</v>
+        <v>450</v>
       </c>
       <c r="G53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>502</v>
+        <v>451</v>
       </c>
       <c r="J53" t="s">
-        <v>503</v>
+        <v>452</v>
       </c>
       <c r="K53" t="s">
-        <v>504</v>
+        <v>453</v>
       </c>
       <c r="L53" t="s">
-        <v>505</v>
+        <v>454</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>506</v>
+        <v>446</v>
       </c>
       <c r="O53" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -5937,72 +5602,66 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>507</v>
+        <v>455</v>
       </c>
       <c r="X53" t="s">
-        <v>508</v>
+        <v>456</v>
       </c>
       <c r="Y53" t="s">
-        <v>509</v>
+        <v>457</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>60849</v>
       </c>
-      <c r="B54" t="n">
-        <v>124211</v>
-      </c>
-      <c r="C54" t="s">
-        <v>510</v>
-      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>511</v>
+        <v>458</v>
       </c>
       <c r="G54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>512</v>
+        <v>459</v>
       </c>
       <c r="J54" t="s">
-        <v>513</v>
+        <v>460</v>
       </c>
       <c r="K54" t="s">
-        <v>514</v>
+        <v>461</v>
       </c>
       <c r="L54" t="s">
-        <v>515</v>
+        <v>462</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>516</v>
+        <v>463</v>
       </c>
       <c r="O54" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
       </c>
-      <c r="Q54" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q54" t="s"/>
       <c r="R54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
@@ -6012,72 +5671,68 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>507</v>
+        <v>464</v>
       </c>
       <c r="X54" t="s">
-        <v>508</v>
+        <v>465</v>
       </c>
       <c r="Y54" t="s">
-        <v>517</v>
+        <v>466</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>60849</v>
       </c>
-      <c r="B55" t="n">
-        <v>124212</v>
-      </c>
-      <c r="C55" t="s">
-        <v>518</v>
-      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>519</v>
+        <v>467</v>
       </c>
       <c r="G55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>520</v>
+        <v>468</v>
       </c>
       <c r="J55" t="s">
-        <v>521</v>
+        <v>469</v>
       </c>
       <c r="K55" t="s">
-        <v>522</v>
+        <v>470</v>
       </c>
       <c r="L55" t="s">
-        <v>523</v>
+        <v>471</v>
       </c>
       <c r="M55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>524</v>
+        <v>472</v>
       </c>
       <c r="O55" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
       </c>
       <c r="Q55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R55" t="n">
         <v>5</v>
       </c>
       <c r="S55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
@@ -6086,54 +5741,58 @@
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s"/>
-      <c r="X55" t="s"/>
+      <c r="W55" t="s">
+        <v>473</v>
+      </c>
+      <c r="X55" t="s">
+        <v>474</v>
+      </c>
       <c r="Y55" t="s">
-        <v>525</v>
+        <v>475</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>60849</v>
       </c>
-      <c r="B56" t="n">
-        <v>124213</v>
-      </c>
-      <c r="C56" t="s">
-        <v>526</v>
-      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>527</v>
+        <v>476</v>
       </c>
       <c r="G56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>528</v>
+        <v>477</v>
       </c>
       <c r="J56" t="s">
-        <v>529</v>
+        <v>478</v>
       </c>
       <c r="K56" t="s">
-        <v>530</v>
+        <v>479</v>
       </c>
       <c r="L56" t="s">
-        <v>531</v>
+        <v>480</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
-      <c r="N56" t="s"/>
-      <c r="O56" t="s"/>
+      <c r="N56" t="s">
+        <v>481</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
       <c r="P56" t="n">
         <v>5</v>
       </c>
@@ -6154,72 +5813,68 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>532</v>
+        <v>482</v>
       </c>
       <c r="X56" t="s">
-        <v>533</v>
+        <v>483</v>
       </c>
       <c r="Y56" t="s">
-        <v>534</v>
+        <v>484</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>60849</v>
       </c>
-      <c r="B57" t="n">
-        <v>124214</v>
-      </c>
-      <c r="C57" t="s">
-        <v>535</v>
-      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>536</v>
+        <v>485</v>
       </c>
       <c r="G57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>537</v>
+        <v>486</v>
       </c>
       <c r="J57" t="s">
-        <v>538</v>
+        <v>487</v>
       </c>
       <c r="K57" t="s">
-        <v>539</v>
+        <v>488</v>
       </c>
       <c r="L57" t="s">
-        <v>540</v>
+        <v>489</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>541</v>
+        <v>490</v>
       </c>
       <c r="O57" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
       </c>
       <c r="Q57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
@@ -6229,72 +5884,68 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>532</v>
+        <v>482</v>
       </c>
       <c r="X57" t="s">
-        <v>533</v>
+        <v>483</v>
       </c>
       <c r="Y57" t="s">
-        <v>542</v>
+        <v>491</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>60849</v>
       </c>
-      <c r="B58" t="n">
-        <v>124215</v>
-      </c>
-      <c r="C58" t="s">
-        <v>543</v>
-      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>544</v>
+        <v>492</v>
       </c>
       <c r="G58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>545</v>
+        <v>493</v>
       </c>
       <c r="J58" t="s">
-        <v>546</v>
+        <v>494</v>
       </c>
       <c r="K58" t="s">
-        <v>547</v>
+        <v>495</v>
       </c>
       <c r="L58" t="s">
-        <v>548</v>
+        <v>496</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>549</v>
+        <v>497</v>
       </c>
       <c r="O58" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="P58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q58" t="n">
         <v>4</v>
       </c>
       <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
         <v>4</v>
-      </c>
-      <c r="S58" t="n">
-        <v>5</v>
       </c>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
@@ -6303,62 +5954,50 @@
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s">
-        <v>550</v>
-      </c>
-      <c r="X58" t="s">
-        <v>551</v>
-      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>552</v>
+        <v>498</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>60849</v>
       </c>
-      <c r="B59" t="n">
-        <v>1515</v>
-      </c>
-      <c r="C59" t="s">
-        <v>553</v>
-      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>554</v>
+        <v>499</v>
       </c>
       <c r="G59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>555</v>
+        <v>500</v>
       </c>
       <c r="J59" t="s">
-        <v>556</v>
+        <v>501</v>
       </c>
       <c r="K59" t="s">
-        <v>557</v>
+        <v>502</v>
       </c>
       <c r="L59" t="s">
-        <v>558</v>
+        <v>503</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
-      <c r="N59" t="s">
-        <v>549</v>
-      </c>
-      <c r="O59" t="s">
-        <v>100</v>
-      </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
       <c r="P59" t="n">
         <v>5</v>
       </c>
@@ -6379,60 +6018,56 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="X59" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Y59" t="s">
-        <v>559</v>
+        <v>506</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>60849</v>
       </c>
-      <c r="B60" t="n">
-        <v>124216</v>
-      </c>
-      <c r="C60" t="s">
-        <v>560</v>
-      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>561</v>
+        <v>507</v>
       </c>
       <c r="G60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>562</v>
+        <v>508</v>
       </c>
       <c r="J60" t="s">
-        <v>563</v>
+        <v>509</v>
       </c>
       <c r="K60" t="s">
-        <v>564</v>
+        <v>510</v>
       </c>
       <c r="L60" t="s">
-        <v>565</v>
+        <v>511</v>
       </c>
       <c r="M60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>566</v>
+        <v>512</v>
       </c>
       <c r="O60" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -6448,67 +6083,71 @@
       </c>
       <c r="T60" t="s"/>
       <c r="U60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
       </c>
-      <c r="W60" t="s"/>
-      <c r="X60" t="s"/>
+      <c r="W60" t="s">
+        <v>504</v>
+      </c>
+      <c r="X60" t="s">
+        <v>505</v>
+      </c>
       <c r="Y60" t="s">
-        <v>567</v>
+        <v>513</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>60849</v>
       </c>
-      <c r="B61" t="n">
-        <v>124212</v>
-      </c>
-      <c r="C61" t="s">
-        <v>526</v>
-      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>568</v>
+        <v>514</v>
       </c>
       <c r="G61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>569</v>
+        <v>515</v>
       </c>
       <c r="J61" t="s">
-        <v>570</v>
+        <v>516</v>
       </c>
       <c r="K61" t="s">
-        <v>571</v>
+        <v>517</v>
       </c>
       <c r="L61" t="s">
-        <v>572</v>
+        <v>518</v>
       </c>
       <c r="M61" t="n">
-        <v>5</v>
-      </c>
-      <c r="N61" t="s"/>
-      <c r="O61" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>519</v>
+      </c>
+      <c r="O61" t="s">
+        <v>72</v>
+      </c>
       <c r="P61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S61" t="n">
         <v>5</v>
@@ -6520,57 +6159,57 @@
       <c r="V61" t="n">
         <v>0</v>
       </c>
-      <c r="W61" t="s"/>
-      <c r="X61" t="s"/>
+      <c r="W61" t="s">
+        <v>520</v>
+      </c>
+      <c r="X61" t="s">
+        <v>521</v>
+      </c>
       <c r="Y61" t="s">
-        <v>572</v>
+        <v>522</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>60849</v>
       </c>
-      <c r="B62" t="n">
-        <v>124217</v>
-      </c>
-      <c r="C62" t="s">
-        <v>573</v>
-      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>574</v>
+        <v>523</v>
       </c>
       <c r="G62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>575</v>
+        <v>524</v>
       </c>
       <c r="J62" t="s">
-        <v>576</v>
+        <v>525</v>
       </c>
       <c r="K62" t="s">
-        <v>577</v>
+        <v>526</v>
       </c>
       <c r="L62" t="s">
-        <v>578</v>
+        <v>527</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>579</v>
+        <v>519</v>
       </c>
       <c r="O62" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6591,57 +6230,57 @@
       <c r="V62" t="n">
         <v>0</v>
       </c>
-      <c r="W62" t="s"/>
-      <c r="X62" t="s"/>
+      <c r="W62" t="s">
+        <v>482</v>
+      </c>
+      <c r="X62" t="s">
+        <v>483</v>
+      </c>
       <c r="Y62" t="s">
-        <v>580</v>
+        <v>528</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>60849</v>
       </c>
-      <c r="B63" t="n">
-        <v>124218</v>
-      </c>
-      <c r="C63" t="s">
-        <v>581</v>
-      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>582</v>
+        <v>529</v>
       </c>
       <c r="G63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>583</v>
+        <v>530</v>
       </c>
       <c r="J63" t="s">
-        <v>584</v>
+        <v>531</v>
       </c>
       <c r="K63" t="s">
-        <v>585</v>
+        <v>532</v>
       </c>
       <c r="L63" t="s">
-        <v>586</v>
+        <v>533</v>
       </c>
       <c r="M63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>579</v>
+        <v>534</v>
       </c>
       <c r="O63" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -6652,10 +6291,12 @@
       <c r="R63" t="n">
         <v>5</v>
       </c>
-      <c r="S63" t="s"/>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
       <c r="T63" t="s"/>
       <c r="U63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
@@ -6663,60 +6304,56 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>586</v>
+        <v>535</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>60849</v>
       </c>
-      <c r="B64" t="n">
-        <v>124219</v>
-      </c>
-      <c r="C64" t="s">
-        <v>587</v>
-      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>588</v>
+        <v>536</v>
       </c>
       <c r="G64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>589</v>
+        <v>537</v>
       </c>
       <c r="J64" t="s">
-        <v>590</v>
+        <v>538</v>
       </c>
       <c r="K64" t="s">
-        <v>591</v>
+        <v>539</v>
       </c>
       <c r="L64" t="s">
-        <v>592</v>
+        <v>540</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
-      <c r="N64" t="s">
-        <v>593</v>
-      </c>
-      <c r="O64" t="s">
-        <v>65</v>
-      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
       <c r="P64" t="n">
         <v>5</v>
       </c>
-      <c r="Q64" t="s"/>
-      <c r="R64" t="s"/>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
       <c r="S64" t="n">
         <v>5</v>
       </c>
@@ -6730,60 +6367,60 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>592</v>
+        <v>540</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>60849</v>
       </c>
-      <c r="B65" t="n">
-        <v>124220</v>
-      </c>
-      <c r="C65" t="s">
-        <v>594</v>
-      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>595</v>
+        <v>541</v>
       </c>
       <c r="G65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>596</v>
+        <v>542</v>
       </c>
       <c r="J65" t="s">
-        <v>597</v>
+        <v>543</v>
       </c>
       <c r="K65" t="s">
-        <v>598</v>
+        <v>544</v>
       </c>
       <c r="L65" t="s">
-        <v>599</v>
+        <v>545</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>593</v>
+        <v>546</v>
       </c>
       <c r="O65" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
       </c>
-      <c r="Q65" t="s"/>
-      <c r="R65" t="s"/>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
       <c r="S65" t="n">
         <v>5</v>
       </c>
@@ -6797,63 +6434,61 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>600</v>
+        <v>547</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>60849</v>
       </c>
-      <c r="B66" t="n">
-        <v>124221</v>
-      </c>
-      <c r="C66" t="s">
-        <v>601</v>
-      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>602</v>
+        <v>548</v>
       </c>
       <c r="G66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>603</v>
+        <v>549</v>
       </c>
       <c r="J66" t="s">
-        <v>604</v>
+        <v>550</v>
       </c>
       <c r="K66" t="s">
-        <v>605</v>
+        <v>551</v>
       </c>
       <c r="L66" t="s">
-        <v>606</v>
+        <v>552</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>593</v>
+        <v>546</v>
       </c>
       <c r="O66" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
       </c>
-      <c r="Q66" t="s"/>
-      <c r="R66" t="s"/>
-      <c r="S66" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="s"/>
       <c r="T66" t="s"/>
       <c r="U66" t="n">
         <v>5</v>
@@ -6864,7 +6499,196 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>607</v>
+        <v>552</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>60849</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>553</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>554</v>
+      </c>
+      <c r="J67" t="s">
+        <v>555</v>
+      </c>
+      <c r="K67" t="s">
+        <v>556</v>
+      </c>
+      <c r="L67" t="s">
+        <v>557</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>558</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>60849</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>559</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>560</v>
+      </c>
+      <c r="J68" t="s">
+        <v>561</v>
+      </c>
+      <c r="K68" t="s">
+        <v>562</v>
+      </c>
+      <c r="L68" t="s">
+        <v>563</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>558</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>60849</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>565</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>566</v>
+      </c>
+      <c r="J69" t="s">
+        <v>567</v>
+      </c>
+      <c r="K69" t="s">
+        <v>568</v>
+      </c>
+      <c r="L69" t="s">
+        <v>569</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>558</v>
+      </c>
+      <c r="O69" t="s">
+        <v>82</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>570</v>
       </c>
     </row>
   </sheetData>
